--- a/SWP/References/OnlineLearn_Function Details.xlsx
+++ b/SWP/References/OnlineLearn_Function Details.xlsx
@@ -408,10 +408,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -497,16 +497,32 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -518,8 +534,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -534,9 +603,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -552,95 +634,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -667,187 +667,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -881,36 +875,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -954,13 +918,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -973,18 +956,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -992,131 +986,131 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1576,9 +1570,9 @@
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="119" zoomScaleNormal="119" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8" defaultRowHeight="14.4" outlineLevelCol="7"/>

--- a/SWP/References/OnlineLearn_Function Details.xlsx
+++ b/SWP/References/OnlineLearn_Function Details.xlsx
@@ -408,10 +408,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -497,6 +497,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -504,7 +511,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -518,14 +556,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -534,16 +564,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -558,40 +604,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -604,14 +627,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -623,22 +639,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -667,19 +667,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -691,157 +841,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -879,6 +879,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -889,45 +898,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -948,11 +918,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -967,10 +943,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -986,40 +986,40 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1028,89 +1028,89 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1570,9 +1570,9 @@
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="119" zoomScaleNormal="119" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="9" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8" defaultRowHeight="14.4" outlineLevelCol="7"/>

--- a/SWP/References/OnlineLearn_Function Details.xlsx
+++ b/SWP/References/OnlineLearn_Function Details.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9215"/>
+    <workbookView windowWidth="11520" windowHeight="9072"/>
   </bookViews>
   <sheets>
     <sheet name="Functions" sheetId="1" r:id="rId1"/>
@@ -408,9 +408,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="30">
@@ -496,8 +496,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -511,7 +512,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -525,6 +526,82 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -535,30 +612,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -572,67 +633,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -667,13 +667,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -685,163 +787,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -879,15 +879,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -903,17 +894,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -933,13 +918,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -961,6 +950,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -970,15 +970,15 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -986,40 +986,40 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1028,89 +1028,89 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1570,9 +1570,9 @@
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="119" zoomScaleNormal="119" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="9" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13:C13"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16:F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -2213,7 +2213,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="11">
-        <f t="shared" si="1"/>
+        <f>ROW()-9</f>
         <v>22</v>
       </c>
       <c r="B31" s="17" t="s">

--- a/SWP/References/OnlineLearn_Function Details.xlsx
+++ b/SWP/References/OnlineLearn_Function Details.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11520" windowHeight="9072"/>
+    <workbookView windowWidth="23040" windowHeight="9215"/>
   </bookViews>
   <sheets>
     <sheet name="Functions" sheetId="1" r:id="rId1"/>
@@ -498,7 +498,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -512,9 +512,64 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -526,59 +581,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -587,26 +589,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -618,13 +618,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -634,6 +627,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -667,19 +667,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -691,157 +841,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -866,15 +866,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -918,17 +909,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -944,6 +929,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -970,7 +970,7 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -986,64 +986,64 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1052,65 +1052,65 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1570,9 +1570,9 @@
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="119" zoomScaleNormal="119" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="9" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16:F49"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -2213,7 +2213,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="11">
-        <f>ROW()-9</f>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="B31" s="17" t="s">

--- a/SWP/References/OnlineLearn_Function Details.xlsx
+++ b/SWP/References/OnlineLearn_Function Details.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="109">
   <si>
     <t>THE APPLICATION DEVELOPMENT PROJECT TOPIC (SWP391)</t>
   </si>
@@ -143,13 +143,13 @@
 - Shown subject information includes its thumbnail, title, tag line; the user is redirected to the subjectt's details on his/her clicking</t>
   </si>
   <si>
-    <t>Blogs List</t>
+    <t>Posts List</t>
   </si>
   <si>
     <t>Show the posts paginatedly (sorted by updated date) + the sider with the post search box, posts categories, latest posts, static contacts/links; Shown post information includes its thumbnail, title, category, brief-info; the user is redirected to the post's details on his/her clicking</t>
   </si>
   <si>
-    <t>Blog Details</t>
+    <t>Post Details</t>
   </si>
   <si>
     <t>Show post details (including title, author, updated date, category, and post details) + the sider with the post search box, posts categories, latest posts, static contacts/links</t>
@@ -233,9 +233,6 @@
   </si>
   <si>
     <t>Tú Anh</t>
-  </si>
-  <si>
-    <t>Post Details</t>
   </si>
   <si>
     <t>Show detailed post information (thumbnail, category, title, brief information,  description, flag to turn the featurning on/off, status), from that allow the user to input, view or edit them</t>
@@ -408,10 +405,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -496,6 +493,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -504,17 +515,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -543,6 +564,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -566,14 +594,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -581,14 +601,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -598,13 +610,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -618,9 +623,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -632,13 +636,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -667,25 +664,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -703,145 +838,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -870,6 +867,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -888,8 +924,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -918,36 +954,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -958,19 +964,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -986,131 +983,131 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1570,9 +1567,9 @@
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="119" zoomScaleNormal="119" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="9" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomLeft" activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -2167,7 +2164,7 @@
         <v>20</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="C29" s="17" t="s">
         <v>60</v>
@@ -2180,7 +2177,7 @@
         <v>19</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>44</v>
@@ -2192,7 +2189,7 @@
         <v>21</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C30" s="17" t="s">
         <v>60</v>
@@ -2205,7 +2202,7 @@
         <v>12</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>62</v>
@@ -2217,7 +2214,7 @@
         <v>22</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C31" s="17" t="s">
         <v>60</v>
@@ -2230,7 +2227,7 @@
         <v>12</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>62</v>
@@ -2242,10 +2239,10 @@
         <v>23</v>
       </c>
       <c r="B32" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="17" t="s">
         <v>69</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>70</v>
       </c>
       <c r="D32" s="12">
         <f t="shared" si="0"/>
@@ -2255,7 +2252,7 @@
         <v>19</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>62</v>
@@ -2267,10 +2264,10 @@
         <v>24</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D33" s="12">
         <f t="shared" si="0"/>
@@ -2280,7 +2277,7 @@
         <v>19</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>62</v>
@@ -2292,10 +2289,10 @@
         <v>25</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D34" s="12">
         <f t="shared" si="0"/>
@@ -2305,7 +2302,7 @@
         <v>23</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>62</v>
@@ -2317,10 +2314,10 @@
         <v>26</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D35" s="12">
         <f t="shared" si="0"/>
@@ -2330,7 +2327,7 @@
         <v>12</v>
       </c>
       <c r="F35" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>62</v>
@@ -2342,10 +2339,10 @@
         <v>27</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D36" s="12">
         <f t="shared" si="0"/>
@@ -2355,10 +2352,10 @@
         <v>12</v>
       </c>
       <c r="F36" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="37" ht="39.6" spans="1:7">
@@ -2367,10 +2364,10 @@
         <v>28</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D37" s="12">
         <f t="shared" si="0"/>
@@ -2380,7 +2377,7 @@
         <v>19</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>62</v>
@@ -2392,10 +2389,10 @@
         <v>29</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D38" s="12">
         <f t="shared" si="0"/>
@@ -2405,7 +2402,7 @@
         <v>19</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>62</v>
@@ -2417,10 +2414,10 @@
         <v>30</v>
       </c>
       <c r="B39" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="17" t="s">
         <v>85</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>86</v>
       </c>
       <c r="D39" s="12">
         <f t="shared" si="0"/>
@@ -2430,7 +2427,7 @@
         <v>19</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>62</v>
@@ -2442,10 +2439,10 @@
         <v>31</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D40" s="12">
         <f t="shared" si="0"/>
@@ -2455,10 +2452,10 @@
         <v>23</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" ht="39.6" spans="1:7">
@@ -2467,10 +2464,10 @@
         <v>32</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D41" s="12">
         <f t="shared" si="0"/>
@@ -2480,10 +2477,10 @@
         <v>19</v>
       </c>
       <c r="F41" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" ht="92.4" spans="1:7">
@@ -2492,10 +2489,10 @@
         <v>33</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D42" s="12">
         <f t="shared" si="0"/>
@@ -2505,10 +2502,10 @@
         <v>19</v>
       </c>
       <c r="F42" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2517,10 +2514,10 @@
         <v>34</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D43" s="12">
         <f t="shared" si="0"/>
@@ -2530,10 +2527,10 @@
         <v>19</v>
       </c>
       <c r="F43" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" ht="118.8" spans="1:7">
@@ -2542,10 +2539,10 @@
         <v>35</v>
       </c>
       <c r="B44" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" s="17" t="s">
         <v>96</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>97</v>
       </c>
       <c r="D44" s="12">
         <f t="shared" si="0"/>
@@ -2555,10 +2552,10 @@
         <v>19</v>
       </c>
       <c r="F44" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" ht="105.6" spans="1:7">
@@ -2567,10 +2564,10 @@
         <v>36</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D45" s="12">
         <f t="shared" si="0"/>
@@ -2580,10 +2577,10 @@
         <v>19</v>
       </c>
       <c r="F45" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" ht="92.4" spans="1:7">
@@ -2592,10 +2589,10 @@
         <v>37</v>
       </c>
       <c r="B46" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C46" s="17" t="s">
         <v>101</v>
-      </c>
-      <c r="C46" s="17" t="s">
-        <v>102</v>
       </c>
       <c r="D46" s="12">
         <f t="shared" si="0"/>
@@ -2605,10 +2602,10 @@
         <v>12</v>
       </c>
       <c r="F46" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" ht="52.8" spans="1:7">
@@ -2617,10 +2614,10 @@
         <v>38</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D47" s="12">
         <f t="shared" si="0"/>
@@ -2630,10 +2627,10 @@
         <v>12</v>
       </c>
       <c r="F47" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" ht="79.2" spans="1:7">
@@ -2642,10 +2639,10 @@
         <v>39</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D48" s="12">
         <f t="shared" si="0"/>
@@ -2655,10 +2652,10 @@
         <v>12</v>
       </c>
       <c r="F48" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" ht="26.4" spans="1:7">
@@ -2667,10 +2664,10 @@
         <v>40</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D49" s="12">
         <f t="shared" si="0"/>
@@ -2680,10 +2677,10 @@
         <v>12</v>
       </c>
       <c r="F49" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/SWP/References/OnlineLearn_Function Details.xlsx
+++ b/SWP/References/OnlineLearn_Function Details.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="112">
   <si>
     <t>THE APPLICATION DEVELOPMENT PROJECT TOPIC (SWP391)</t>
   </si>
@@ -214,13 +214,13 @@
     <t>Learning</t>
   </si>
   <si>
-    <t>This screen allows the user to browse and answer the quiz questions</t>
+    <t>This screen allows the user to browse and answer the quiz questions and flag the important question for review</t>
   </si>
   <si>
     <t>Quiz Review</t>
   </si>
   <si>
-    <t>This screen allows the user to review the details of the quiz that s/he has just taken</t>
+    <t>This screen allows the user to review the details of the quiz that s/he has just taken, user can see flag question</t>
   </si>
   <si>
     <t>Dashboard</t>
@@ -331,7 +331,6 @@
   </si>
   <si>
     <t>The existing quizzes are showned in this page paginatedly:
-- The user can filter the list by subject, quiz types + search quizzes by the name
 - Each quiz includes following information: id, name, subject, level, # question, duration, pass rate, and the quiz type.
 From this page, the user has the options to call to the Quiz Details page for adding new or editing existing quiz + delete the quiz. Please note that the quiz can be editted only when there is not any test taken yet.</t>
   </si>
@@ -399,16 +398,25 @@
   <si>
     <t>Show detailed user information (type, value, order, description, status), from that allow the user to add new, view or edit setting information</t>
   </si>
+  <si>
+    <t>Setting Pemission</t>
+  </si>
+  <si>
+    <t>Show table of roles and permission, admin can tick in cell to enable permission for that role</t>
+  </si>
+  <si>
+    <t>FriendList</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -494,6 +502,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -501,9 +516,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -515,6 +538,105 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -522,120 +644,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -664,13 +672,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -682,163 +822,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -867,45 +875,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -924,8 +893,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -954,6 +923,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -967,147 +975,147 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1564,12 +1572,12 @@
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="119" zoomScaleNormal="119" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="9" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B50" sqref="B50"/>
+      <selection pane="bottomLeft" activeCell="F27" sqref="F26:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -2083,7 +2091,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" ht="26.4" spans="1:7">
       <c r="A26" s="11">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -2108,7 +2116,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" ht="26.4" spans="1:7">
       <c r="A27" s="11">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -2483,7 +2491,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" ht="92.4" spans="1:7">
+    <row r="42" ht="79.2" spans="1:7">
       <c r="A42" s="11">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -2681,6 +2689,39 @@
       </c>
       <c r="G49" s="1" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="50" ht="28.8" spans="1:6">
+      <c r="A50" s="1">
+        <v>41</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D50" s="1">
+        <v>240</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1">
+        <v>42</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="1">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/SWP/References/OnlineLearn_Function Details.xlsx
+++ b/SWP/References/OnlineLearn_Function Details.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="121">
   <si>
     <t>THE APPLICATION DEVELOPMENT PROJECT TOPIC (SWP391)</t>
   </si>
@@ -405,7 +405,34 @@
     <t>Show table of roles and permission, admin can tick in cell to enable permission for that role</t>
   </si>
   <si>
-    <t>FriendList</t>
+    <t>Contact List</t>
+  </si>
+  <si>
+    <t>Show sider have the list of contact and block list, each contact contain send messege button and block button, click in contact to see contact history between 2 people, click send messesage button next to contact to go to Messege Screen to send messege. If click block button, block that user to message you and you can't messege them either, you can go to block list and unblock user</t>
+  </si>
+  <si>
+    <t>Send messege</t>
+  </si>
+  <si>
+    <t>Allow user to fill receiver's email, subject, content end send that email</t>
+  </si>
+  <si>
+    <t>Notifycation List</t>
+  </si>
+  <si>
+    <t>Show notification</t>
+  </si>
+  <si>
+    <t>Ban List</t>
+  </si>
+  <si>
+    <t>Include user list and course list, admin can reactive banned user or course, user get ban can view only and send messege to ask admin to unban</t>
+  </si>
+  <si>
+    <t>Analysis</t>
+  </si>
+  <si>
+    <t>Show list of income by City</t>
   </si>
 </sst>
 </file>
@@ -413,10 +440,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -516,7 +543,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -530,6 +557,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -538,6 +589,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -548,17 +615,17 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -569,27 +636,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -602,28 +659,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -636,14 +671,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -672,181 +699,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -875,6 +902,69 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -894,70 +984,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -975,15 +1002,15 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -991,131 +1018,131 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1572,12 +1599,12 @@
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="119" zoomScaleNormal="119" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="9" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F27" sqref="F26:F27"/>
+      <selection pane="bottomLeft" activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -2711,17 +2738,104 @@
         <v>110</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" ht="72" spans="1:6">
       <c r="A51" s="1">
         <v>42</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="C51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="1">
+        <v>240</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1">
         <v>43</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" s="1">
+        <v>60</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1">
+        <v>44</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" s="1">
+        <v>60</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="54" ht="28.8" spans="1:6">
+      <c r="A54" s="1">
+        <v>45</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D54" s="1">
+        <v>60</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1">
+        <v>46</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D55" s="1">
+        <v>60</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/SWP/References/OnlineLearn_Function Details.xlsx
+++ b/SWP/References/OnlineLearn_Function Details.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="121">
   <si>
     <t>THE APPLICATION DEVELOPMENT PROJECT TOPIC (SWP391)</t>
   </si>
@@ -176,26 +176,21 @@
     <t>This is a pop-up screen which allow the user to register for access a subject. On this screen, the user needs to choose appropriate subject price package &amp; input his/her information (full name, email, mobile, gender); A logged in user doesn't have to input those contact information</t>
   </si>
   <si>
-    <t>Mạnh</t>
-  </si>
-  <si>
-    <t>My Registrations</t>
+    <t>Nhóm Mạnh</t>
+  </si>
+  <si>
+    <t>My Courses</t>
   </si>
   <si>
     <t>Customer</t>
   </si>
   <si>
-    <t>Show the list of user's registration + the sider with the subject search box, subject categories, static contacts/links
-- Each registration includes below information: id, subject, registration time, package, total cost, status, valid from, valid to;
-- If the registration is still in the submitted status, the users can choose to cancel it or comming back to the Course Register pop-up to edit it)</t>
-  </si>
-  <si>
-    <t>My Courses</t>
-  </si>
-  <si>
     <t>for the customer to view his/her access-allowed courses</t>
   </si>
   <si>
+    <t>Nhóm Sơn</t>
+  </si>
+  <si>
     <t>Lesson View</t>
   </si>
   <si>
@@ -229,16 +224,16 @@
     <t>Marketing</t>
   </si>
   <si>
-    <t>Show statistics of new subjects (new, all), new registrations (success, cancelled, submitted), revenues (total, by subject categories), customers (newly registered, newly bought), and the trend of order counts (success, all) by day for the last 7 days (the start date &amp; end date can be adjustable)</t>
-  </si>
-  <si>
-    <t>Tú Anh</t>
+    <t>Show statistics of new subjects (new, all), revenues (total, by subject categories), customers (newly bought), and the trend of order counts by day for the last 7 days (the start date &amp; end date can be adjustable)</t>
+  </si>
+  <si>
+    <t>Post Details Edit</t>
   </si>
   <si>
     <t>Show detailed post information (thumbnail, category, title, brief information,  description, flag to turn the featurning on/off, status), from that allow the user to input, view or edit them</t>
   </si>
   <si>
-    <t>Sliders List</t>
+    <t>Sliders List Edit</t>
   </si>
   <si>
     <t>Show the paginated list of sliders (including sliders' id, title, image, backlink, status)
@@ -246,7 +241,7 @@
 - For each slider, the user can choose to hide, show, edit it</t>
   </si>
   <si>
-    <t>Slider Details</t>
+    <t>Slider Details Edit</t>
   </si>
   <si>
     <t>Show detailed slider information (image, title, backlink, status, notes)</t>
@@ -266,6 +261,9 @@
 - Edit course information (linked to the Subject Details for that)</t>
   </si>
   <si>
+    <t>Tú Anh</t>
+  </si>
+  <si>
     <t>New Subject</t>
   </si>
   <si>
@@ -440,10 +438,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -542,10 +540,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -557,11 +556,101 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -574,103 +663,12 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -699,19 +697,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -723,19 +823,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,133 +865,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -902,30 +900,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -935,17 +909,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -961,6 +929,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -982,15 +965,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -999,18 +973,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1018,131 +1016,131 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1599,15 +1597,15 @@
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="119" zoomScaleNormal="119" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F51" sqref="F51"/>
+      <selection pane="bottomLeft" activeCell="B55" sqref="B50:B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="10.8" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="3" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.7" style="1" customWidth="1"/>
@@ -1662,7 +1660,7 @@
       </c>
       <c r="D8" s="9">
         <f>SUM(D10:D49)</f>
-        <v>4800</v>
+        <v>4740</v>
       </c>
     </row>
     <row r="9" hidden="1" spans="1:6">
@@ -1993,7 +1991,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" ht="52.8" spans="1:7">
+    <row r="21" ht="52.8" spans="1:9">
       <c r="A21" s="11">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -2017,39 +2015,25 @@
       <c r="G21" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="22" ht="79.2" spans="1:7">
-      <c r="A22" s="11">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="B22" s="17" t="s">
+      <c r="I21" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="13"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="11">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B23" s="17" t="s">
         <v>45</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="12">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="11">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>48</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>46</v>
@@ -2062,19 +2046,22 @@
         <v>12</v>
       </c>
       <c r="F23" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I23" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="11">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B24" s="17" t="s">
         <v>49</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="11">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>50</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>46</v>
@@ -2087,19 +2074,22 @@
         <v>23</v>
       </c>
       <c r="F24" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I24" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="11">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B25" s="17" t="s">
         <v>51</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="11">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>52</v>
       </c>
       <c r="C25" s="17" t="s">
         <v>46</v>
@@ -2112,22 +2102,25 @@
         <v>19</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="26" ht="26.4" spans="1:7">
+      <c r="I25" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" ht="26.4" spans="1:9">
       <c r="A26" s="11">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="B26" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="17" t="s">
         <v>54</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>55</v>
       </c>
       <c r="D26" s="12">
         <f t="shared" si="0"/>
@@ -2137,22 +2130,25 @@
         <v>23</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="27" ht="26.4" spans="1:7">
+      <c r="I26" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" ht="26.4" spans="1:9">
       <c r="A27" s="11">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D27" s="12">
         <f t="shared" si="0"/>
@@ -2162,22 +2158,25 @@
         <v>23</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="28" ht="52.8" spans="1:7">
+      <c r="I27" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" ht="39.6" spans="1:9">
       <c r="A28" s="11">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="B28" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="17" t="s">
         <v>59</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>60</v>
       </c>
       <c r="D28" s="12">
         <f t="shared" si="0"/>
@@ -2187,22 +2186,25 @@
         <v>23</v>
       </c>
       <c r="F28" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I28" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" ht="39.6" spans="1:9">
+      <c r="A29" s="11">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B29" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" ht="39.6" spans="1:7">
-      <c r="A29" s="11">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>36</v>
-      </c>
       <c r="C29" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D29" s="12">
         <f t="shared" si="0"/>
@@ -2212,22 +2214,25 @@
         <v>19</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="30" ht="39.6" spans="1:7">
+      <c r="I29" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" ht="39.6" spans="1:9">
       <c r="A30" s="11">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D30" s="12">
         <f t="shared" si="0"/>
@@ -2237,22 +2242,25 @@
         <v>12</v>
       </c>
       <c r="F30" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I30" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="11">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B31" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="11">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>66</v>
-      </c>
       <c r="C31" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D31" s="12">
         <f t="shared" si="0"/>
@@ -2262,10 +2270,13 @@
         <v>12</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>62</v>
+        <v>44</v>
+      </c>
+      <c r="I31" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="32" ht="92.4" spans="1:7">
@@ -2274,10 +2285,10 @@
         <v>23</v>
       </c>
       <c r="B32" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="17" t="s">
         <v>68</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>69</v>
       </c>
       <c r="D32" s="12">
         <f t="shared" si="0"/>
@@ -2287,10 +2298,10 @@
         <v>19</v>
       </c>
       <c r="F32" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="33" ht="39.6" spans="1:7">
@@ -2302,7 +2313,7 @@
         <v>71</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D33" s="12">
         <f t="shared" si="0"/>
@@ -2315,7 +2326,7 @@
         <v>72</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" ht="52.8" spans="1:7">
@@ -2327,7 +2338,7 @@
         <v>73</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D34" s="12">
         <f t="shared" si="0"/>
@@ -2340,7 +2351,7 @@
         <v>74</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" ht="26.4" spans="1:7">
@@ -2352,7 +2363,7 @@
         <v>75</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D35" s="12">
         <f t="shared" si="0"/>
@@ -2365,7 +2376,7 @@
         <v>76</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" ht="39.6" spans="1:7">
@@ -2377,7 +2388,7 @@
         <v>77</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D36" s="12">
         <f t="shared" si="0"/>
@@ -2402,7 +2413,7 @@
         <v>80</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D37" s="12">
         <f t="shared" si="0"/>
@@ -2415,7 +2426,7 @@
         <v>81</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2427,7 +2438,7 @@
         <v>82</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D38" s="12">
         <f t="shared" si="0"/>
@@ -2440,7 +2451,7 @@
         <v>83</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" ht="92.4" spans="1:7">
@@ -2465,7 +2476,7 @@
         <v>86</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" ht="52.8" spans="1:7">

--- a/SWP/References/OnlineLearn_Function Details.xlsx
+++ b/SWP/References/OnlineLearn_Function Details.xlsx
@@ -137,7 +137,7 @@
     <t>Public</t>
   </si>
   <si>
-    <t>Show sliders, hot posts, featured subjects + the sider with the latest posts, static contacts/links
+    <t>Show sliders, hot posts, featured subjects + the slider with the latest posts, static contacts/links
 - Shown slider information includes its image and title; the user is redirected to the slider's backlink on his/her clicking
 - Shown post information includes its thumbnail, title, post date; the user is redirected to the post's details on his/her clicking
 - Shown subject information includes its thumbnail, title, tag line; the user is redirected to the subjectt's details on his/her clicking</t>
@@ -438,10 +438,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -526,6 +526,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -533,8 +556,71 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -549,16 +635,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -578,97 +663,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -697,84 +697,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -787,91 +871,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -902,8 +902,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -912,8 +914,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -948,6 +950,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -959,26 +979,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1000,7 +1000,7 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1016,131 +1016,131 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1600,9 +1600,9 @@
   <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="119" zoomScaleNormal="119" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="9" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B55" sqref="B50:B55"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8" defaultRowHeight="14.4"/>

--- a/SWP/References/OnlineLearn_Function Details.xlsx
+++ b/SWP/References/OnlineLearn_Function Details.xlsx
@@ -438,10 +438,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -526,6 +526,81 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -534,23 +609,54 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -563,112 +669,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -697,13 +697,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -715,163 +871,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -900,26 +900,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -931,6 +911,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -959,30 +963,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -997,18 +977,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1016,131 +1016,131 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1600,9 +1600,9 @@
   <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="119" zoomScaleNormal="119" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="9" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B17:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8" defaultRowHeight="14.4"/>

--- a/SWP/References/OnlineLearn_Function Details.xlsx
+++ b/SWP/References/OnlineLearn_Function Details.xlsx
@@ -167,7 +167,7 @@
     <t>Course Details</t>
   </si>
   <si>
-    <t>Show subject details (including title, tag line, brief info, lowest price package option (original price, sale price), product description, and a Register button) + the sider with the subject search box, subject categories, featured subjects, static contacts/links</t>
+    <t>Show subject details (including title, tag line, brief info, lowest price package option (original price, sale price), product description, and a Register button) + the slider with the subject search box, subject categories, featured subjects, static contacts/links</t>
   </si>
   <si>
     <t>Course Register</t>
@@ -438,10 +438,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -535,21 +535,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -563,21 +586,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -586,6 +594,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -609,6 +625,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -626,37 +649,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -669,6 +662,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -697,181 +697,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -901,16 +901,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -954,26 +954,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -983,6 +974,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1000,7 +1000,7 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1019,128 +1019,128 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1600,9 +1600,9 @@
   <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="119" zoomScaleNormal="119" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="9" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B17:B20"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8" defaultRowHeight="14.4"/>

--- a/SWP/References/OnlineLearn_Function Details.xlsx
+++ b/SWP/References/OnlineLearn_Function Details.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\swp391\SWP391_Project\SWP\References\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9215"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9216"/>
   </bookViews>
   <sheets>
     <sheet name="Functions" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="122">
   <si>
     <t>THE APPLICATION DEVELOPMENT PROJECT TOPIC (SWP391)</t>
   </si>
@@ -432,18 +437,15 @@
   <si>
     <t>Show list of income by City</t>
   </si>
+  <si>
+    <t>Bỏ</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-  </numFmts>
-  <fonts count="30">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -526,151 +528,35 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -679,13 +565,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799951170384838"/>
+        <fgColor theme="9" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -695,188 +581,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -899,373 +605,101 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="32" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="32" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="32" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="32" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="4" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="4" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="10" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="Normal 2" xfId="32"/>
-    <cellStyle name="20% - Accent5" xfId="33" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="34" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="35" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="36" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="38" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="39" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="40" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="41" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="42" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="43" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="44" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="46" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="49" builtinId="52"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -1287,7 +721,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1589,68 +1023,68 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="119" zoomScaleNormal="119" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="3" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.8" style="1" customWidth="1"/>
-    <col min="6" max="6" width="62.7" style="2" customWidth="1"/>
-    <col min="7" max="228" width="8.8" style="1" customWidth="1"/>
-    <col min="229" max="16384" width="10.8" style="1"/>
+    <col min="2" max="2" width="15.69921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.69921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="62.69921875" style="2" customWidth="1"/>
+    <col min="7" max="228" width="8.796875" style="1" customWidth="1"/>
+    <col min="229" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" hidden="1" spans="2:5">
+    <row r="1" spans="1:8" hidden="1">
       <c r="B1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" hidden="1" spans="2:5">
+    <row r="2" spans="1:8" hidden="1">
       <c r="B2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" hidden="1" spans="2:5">
+    <row r="3" spans="1:8" hidden="1">
       <c r="B3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" hidden="1" spans="2:5">
+    <row r="4" spans="1:8" hidden="1">
       <c r="B4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" ht="19.2" hidden="1" spans="5:5">
+    <row r="5" spans="1:8" ht="19.2" hidden="1">
       <c r="E5" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="15.6" hidden="1" spans="5:5">
+    <row r="6" spans="1:8" ht="15.6" hidden="1">
       <c r="E6" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" ht="17.4" hidden="1" spans="4:4">
+    <row r="7" spans="1:8" ht="17.399999999999999" hidden="1">
       <c r="D7" s="6"/>
     </row>
-    <row r="8" ht="18" hidden="1" spans="1:4">
+    <row r="8" spans="1:8" ht="18" hidden="1">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -1663,7 +1097,7 @@
         <v>4740</v>
       </c>
     </row>
-    <row r="9" hidden="1" spans="1:6">
+    <row r="9" spans="1:8" hidden="1">
       <c r="A9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1683,15 +1117,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" ht="39.6" spans="1:8">
+    <row r="10" spans="1:8" ht="39.6">
       <c r="A10" s="11">
         <f>ROW()-9</f>
         <v>1</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="12">
@@ -1701,7 +1135,7 @@
       <c r="E10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="17" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="1" t="s">
@@ -1711,15 +1145,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" ht="52.8" spans="1:8">
+    <row r="11" spans="1:8" ht="52.8">
       <c r="A11" s="11">
         <f t="shared" ref="A11:A49" si="1">ROW()-9</f>
         <v>2</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="12">
@@ -1729,7 +1163,7 @@
       <c r="E11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="17" t="s">
         <v>17</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -1739,15 +1173,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" ht="79.2" spans="1:8">
+    <row r="12" spans="1:8" ht="79.2">
       <c r="A12" s="11">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="12">
@@ -1757,7 +1191,7 @@
       <c r="E12" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="17" t="s">
         <v>20</v>
       </c>
       <c r="G12" s="1" t="s">
@@ -1767,15 +1201,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" ht="52.8" spans="1:8">
+    <row r="13" spans="1:8" ht="52.8">
       <c r="A13" s="11">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="18" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="15">
@@ -1785,7 +1219,7 @@
       <c r="E13" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="19" t="s">
         <v>24</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -1795,15 +1229,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" ht="39.6" spans="1:8">
+    <row r="14" spans="1:8" ht="39.6">
       <c r="A14" s="11">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="12">
@@ -1813,7 +1247,7 @@
       <c r="E14" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="17" t="s">
         <v>27</v>
       </c>
       <c r="G14" s="1" t="s">
@@ -1823,15 +1257,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" ht="26.4" spans="1:8">
+    <row r="15" spans="1:8" ht="26.4">
       <c r="A15" s="11">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="12">
@@ -1841,7 +1275,7 @@
       <c r="E15" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="17" t="s">
         <v>29</v>
       </c>
       <c r="G15" s="1" t="s">
@@ -1851,7 +1285,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" ht="105.6" spans="1:8">
+    <row r="16" spans="1:8" ht="105.6">
       <c r="A16" s="11">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -1879,7 +1313,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" ht="52.8" spans="1:8">
+    <row r="17" spans="1:9" ht="52.8">
       <c r="A17" s="11">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -1907,7 +1341,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" ht="26.4" spans="1:8">
+    <row r="18" spans="1:9" ht="39.6">
       <c r="A18" s="11">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -1935,7 +1369,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" ht="92.4" spans="1:8">
+    <row r="19" spans="1:9" ht="92.4">
       <c r="A19" s="11">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -1963,7 +1397,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" ht="52.8" spans="1:8">
+    <row r="20" spans="1:9" ht="52.8">
       <c r="A20" s="11">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -1991,7 +1425,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" ht="52.8" spans="1:9">
+    <row r="21" spans="1:9" ht="52.8">
       <c r="A21" s="11">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -2019,7 +1453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:9">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -2032,10 +1466,10 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="16" t="s">
         <v>46</v>
       </c>
       <c r="D23" s="12">
@@ -2045,7 +1479,7 @@
       <c r="E23" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="18" t="s">
+      <c r="F23" s="17" t="s">
         <v>47</v>
       </c>
       <c r="G23" s="1" t="s">
@@ -2060,10 +1494,10 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="16" t="s">
         <v>46</v>
       </c>
       <c r="D24" s="12">
@@ -2073,7 +1507,7 @@
       <c r="E24" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="18" t="s">
+      <c r="F24" s="17" t="s">
         <v>50</v>
       </c>
       <c r="G24" s="1" t="s">
@@ -2088,10 +1522,10 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="16" t="s">
         <v>46</v>
       </c>
       <c r="D25" s="12">
@@ -2101,7 +1535,7 @@
       <c r="E25" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F25" s="18" t="s">
+      <c r="F25" s="17" t="s">
         <v>52</v>
       </c>
       <c r="G25" s="1" t="s">
@@ -2111,15 +1545,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" ht="26.4" spans="1:9">
+    <row r="26" spans="1:9" ht="26.4">
       <c r="A26" s="11">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="16" t="s">
         <v>54</v>
       </c>
       <c r="D26" s="12">
@@ -2129,7 +1563,7 @@
       <c r="E26" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="18" t="s">
+      <c r="F26" s="17" t="s">
         <v>55</v>
       </c>
       <c r="G26" s="1" t="s">
@@ -2139,15 +1573,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" ht="26.4" spans="1:9">
+    <row r="27" spans="1:9" ht="26.4">
       <c r="A27" s="11">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="16" t="s">
         <v>54</v>
       </c>
       <c r="D27" s="12">
@@ -2157,7 +1591,7 @@
       <c r="E27" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="18" t="s">
+      <c r="F27" s="17" t="s">
         <v>57</v>
       </c>
       <c r="G27" s="1" t="s">
@@ -2167,15 +1601,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" ht="39.6" spans="1:9">
+    <row r="28" spans="1:9" ht="39.6">
       <c r="A28" s="11">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="16" t="s">
         <v>59</v>
       </c>
       <c r="D28" s="12">
@@ -2185,7 +1619,7 @@
       <c r="E28" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="18" t="s">
+      <c r="F28" s="17" t="s">
         <v>60</v>
       </c>
       <c r="G28" s="1" t="s">
@@ -2195,16 +1629,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" ht="39.6" spans="1:9">
+    <row r="29" spans="1:9" ht="39.6">
       <c r="A29" s="11">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="17" t="s">
-        <v>59</v>
+      <c r="C29" s="16" t="s">
+        <v>96</v>
       </c>
       <c r="D29" s="12">
         <f t="shared" si="0"/>
@@ -2213,7 +1647,7 @@
       <c r="E29" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="18" t="s">
+      <c r="F29" s="17" t="s">
         <v>62</v>
       </c>
       <c r="G29" s="1" t="s">
@@ -2223,16 +1657,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" ht="39.6" spans="1:9">
+    <row r="30" spans="1:9" ht="39.6">
       <c r="A30" s="11">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="17" t="s">
-        <v>59</v>
+      <c r="C30" s="16" t="s">
+        <v>96</v>
       </c>
       <c r="D30" s="12">
         <f t="shared" si="0"/>
@@ -2241,7 +1675,7 @@
       <c r="E30" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F30" s="18" t="s">
+      <c r="F30" s="17" t="s">
         <v>64</v>
       </c>
       <c r="G30" s="1" t="s">
@@ -2256,11 +1690,11 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="17" t="s">
-        <v>59</v>
+      <c r="C31" s="16" t="s">
+        <v>96</v>
       </c>
       <c r="D31" s="12">
         <f t="shared" si="0"/>
@@ -2269,7 +1703,7 @@
       <c r="E31" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F31" s="18" t="s">
+      <c r="F31" s="17" t="s">
         <v>66</v>
       </c>
       <c r="G31" s="1" t="s">
@@ -2279,15 +1713,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" ht="92.4" spans="1:7">
+    <row r="32" spans="1:9" ht="92.4">
       <c r="A32" s="11">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="16" t="s">
         <v>68</v>
       </c>
       <c r="D32" s="12">
@@ -2297,22 +1731,22 @@
       <c r="E32" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F32" s="18" t="s">
+      <c r="F32" s="17" t="s">
         <v>69</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="33" ht="39.6" spans="1:7">
+    <row r="33" spans="1:7" ht="39.6">
       <c r="A33" s="11">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="16" t="s">
         <v>68</v>
       </c>
       <c r="D33" s="12">
@@ -2322,22 +1756,22 @@
       <c r="E33" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F33" s="18" t="s">
+      <c r="F33" s="17" t="s">
         <v>72</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="34" ht="52.8" spans="1:7">
+    <row r="34" spans="1:7" ht="52.8">
       <c r="A34" s="11">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="16" t="s">
         <v>68</v>
       </c>
       <c r="D34" s="12">
@@ -2347,22 +1781,22 @@
       <c r="E34" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F34" s="18" t="s">
+      <c r="F34" s="17" t="s">
         <v>74</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="35" ht="26.4" spans="1:7">
+    <row r="35" spans="1:7" ht="26.4">
       <c r="A35" s="11">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="16" t="s">
         <v>68</v>
       </c>
       <c r="D35" s="12">
@@ -2372,22 +1806,22 @@
       <c r="E35" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F35" s="18" t="s">
+      <c r="F35" s="17" t="s">
         <v>76</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="36" ht="39.6" spans="1:7">
+    <row r="36" spans="1:7" ht="39.6">
       <c r="A36" s="11">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="16" t="s">
         <v>68</v>
       </c>
       <c r="D36" s="12">
@@ -2397,22 +1831,22 @@
       <c r="E36" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F36" s="18" t="s">
+      <c r="F36" s="17" t="s">
         <v>78</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="37" ht="39.6" spans="1:7">
+    <row r="37" spans="1:7" ht="39.6">
       <c r="A37" s="11">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="C37" s="16" t="s">
         <v>68</v>
       </c>
       <c r="D37" s="12">
@@ -2422,7 +1856,7 @@
       <c r="E37" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F37" s="18" t="s">
+      <c r="F37" s="17" t="s">
         <v>81</v>
       </c>
       <c r="G37" s="1" t="s">
@@ -2434,10 +1868,10 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="16" t="s">
         <v>68</v>
       </c>
       <c r="D38" s="12">
@@ -2447,22 +1881,22 @@
       <c r="E38" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F38" s="18" t="s">
+      <c r="F38" s="17" t="s">
         <v>83</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="39" ht="92.4" spans="1:7">
+    <row r="39" spans="1:7" ht="92.4">
       <c r="A39" s="11">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="16" t="s">
         <v>85</v>
       </c>
       <c r="D39" s="12">
@@ -2472,22 +1906,22 @@
       <c r="E39" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F39" s="18" t="s">
+      <c r="F39" s="17" t="s">
         <v>86</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="40" ht="52.8" spans="1:7">
+    <row r="40" spans="1:7" ht="52.8">
       <c r="A40" s="11">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="16" t="s">
         <v>85</v>
       </c>
       <c r="D40" s="12">
@@ -2497,22 +1931,22 @@
       <c r="E40" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F40" s="18" t="s">
+      <c r="F40" s="17" t="s">
         <v>88</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="41" ht="39.6" spans="1:7">
+    <row r="41" spans="1:7" ht="39.6">
       <c r="A41" s="11">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="16" t="s">
         <v>85</v>
       </c>
       <c r="D41" s="12">
@@ -2522,22 +1956,22 @@
       <c r="E41" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F41" s="18" t="s">
+      <c r="F41" s="17" t="s">
         <v>90</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="42" ht="79.2" spans="1:7">
+    <row r="42" spans="1:7" ht="79.2">
       <c r="A42" s="11">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="C42" s="17" t="s">
+      <c r="C42" s="16" t="s">
         <v>85</v>
       </c>
       <c r="D42" s="12">
@@ -2547,7 +1981,7 @@
       <c r="E42" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F42" s="18" t="s">
+      <c r="F42" s="17" t="s">
         <v>92</v>
       </c>
       <c r="G42" s="1" t="s">
@@ -2559,10 +1993,10 @@
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C43" s="16" t="s">
         <v>85</v>
       </c>
       <c r="D43" s="12">
@@ -2572,72 +2006,72 @@
       <c r="E43" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F43" s="18" t="s">
+      <c r="F43" s="17" t="s">
         <v>94</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="44" ht="118.8" spans="1:7">
-      <c r="A44" s="11">
+    <row r="44" spans="1:7" s="20" customFormat="1" ht="118.8">
+      <c r="A44" s="21">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="D44" s="12">
+      <c r="D44" s="23">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="E44" s="11" t="s">
+      <c r="E44" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F44" s="18" t="s">
+      <c r="F44" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="G44" s="20" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="45" ht="105.6" spans="1:7">
-      <c r="A45" s="11">
+    <row r="45" spans="1:7" s="20" customFormat="1" ht="105.6">
+      <c r="A45" s="21">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C45" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="D45" s="12">
+      <c r="D45" s="23">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="E45" s="11" t="s">
+      <c r="E45" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F45" s="18" t="s">
+      <c r="F45" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="G45" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="46" ht="92.4" spans="1:7">
+      <c r="G45" s="20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="92.4">
       <c r="A46" s="11">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="C46" s="17" t="s">
+      <c r="C46" s="16" t="s">
         <v>101</v>
       </c>
       <c r="D46" s="12">
@@ -2647,22 +2081,22 @@
       <c r="E46" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F46" s="18" t="s">
+      <c r="F46" s="17" t="s">
         <v>102</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="47" ht="52.8" spans="1:7">
+    <row r="47" spans="1:7" ht="52.8">
       <c r="A47" s="11">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="C47" s="17" t="s">
+      <c r="C47" s="16" t="s">
         <v>101</v>
       </c>
       <c r="D47" s="12">
@@ -2672,22 +2106,22 @@
       <c r="E47" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F47" s="18" t="s">
+      <c r="F47" s="17" t="s">
         <v>104</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="48" ht="79.2" spans="1:7">
+    <row r="48" spans="1:7" ht="79.2">
       <c r="A48" s="11">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="B48" s="17" t="s">
+      <c r="B48" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="16" t="s">
         <v>101</v>
       </c>
       <c r="D48" s="12">
@@ -2697,22 +2131,22 @@
       <c r="E48" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F48" s="18" t="s">
+      <c r="F48" s="17" t="s">
         <v>106</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="49" ht="26.4" spans="1:7">
+    <row r="49" spans="1:7" ht="26.4">
       <c r="A49" s="11">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="B49" s="17" t="s">
+      <c r="B49" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="C49" s="17" t="s">
+      <c r="C49" s="16" t="s">
         <v>101</v>
       </c>
       <c r="D49" s="12">
@@ -2722,14 +2156,14 @@
       <c r="E49" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F49" s="18" t="s">
+      <c r="F49" s="17" t="s">
         <v>108</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="50" ht="28.8" spans="1:6">
+    <row r="50" spans="1:7" ht="28.8">
       <c r="A50" s="1">
         <v>41</v>
       </c>
@@ -2749,7 +2183,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="51" ht="72" spans="1:6">
+    <row r="51" spans="1:7" ht="72">
       <c r="A51" s="1">
         <v>42</v>
       </c>
@@ -2769,7 +2203,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:7">
       <c r="A52" s="1">
         <v>43</v>
       </c>
@@ -2789,7 +2223,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:7">
       <c r="A53" s="1">
         <v>44</v>
       </c>
@@ -2809,7 +2243,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="54" ht="28.8" spans="1:6">
+    <row r="54" spans="1:7" ht="28.8">
       <c r="A54" s="1">
         <v>45</v>
       </c>
@@ -2829,7 +2263,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:7">
       <c r="A55" s="1">
         <v>46</v>
       </c>
@@ -2856,8 +2290,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/SWP/References/OnlineLearn_Function Details.xlsx
+++ b/SWP/References/OnlineLearn_Function Details.xlsx
@@ -438,8 +438,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
@@ -526,6 +526,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -535,21 +550,84 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -563,91 +641,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -664,11 +657,18 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -697,181 +697,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -901,16 +901,49 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -930,50 +963,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1000,7 +1000,7 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1016,131 +1016,131 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1600,9 +1600,9 @@
   <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="119" zoomScaleNormal="119" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="9" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomLeft" activeCell="G24" sqref="B24:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8" defaultRowHeight="14.4"/>
@@ -2032,7 +2032,7 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="11" t="s">
         <v>45</v>
       </c>
       <c r="C23" s="17" t="s">
@@ -2133,7 +2133,7 @@
         <v>55</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I26" s="1">
         <v>2</v>

--- a/SWP/References/OnlineLearn_Function Details.xlsx
+++ b/SWP/References/OnlineLearn_Function Details.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\swp391\SWP391_Project\SWP\References\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9216"/>
+    <workbookView windowWidth="23040" windowHeight="9215"/>
   </bookViews>
   <sheets>
     <sheet name="Functions" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -145,13 +140,13 @@
     <t>Show sliders, hot posts, featured subjects + the slider with the latest posts, static contacts/links
 - Shown slider information includes its image and title; the user is redirected to the slider's backlink on his/her clicking
 - Shown post information includes its thumbnail, title, post date; the user is redirected to the post's details on his/her clicking
-- Shown subject information includes its thumbnail, title, tag line; the user is redirected to the subjectt's details on his/her clicking</t>
+- Shown course information includes its thumbnail, title, tag line; the user is redirected to the course's details on his/her clicking</t>
   </si>
   <si>
     <t>Posts List</t>
   </si>
   <si>
-    <t>Show the posts paginatedly (sorted by updated date) + the sider with the post search box, posts categories, latest posts, static contacts/links; Shown post information includes its thumbnail, title, category, brief-info; the user is redirected to the post's details on his/her clicking</t>
+    <t>Show the posts pagination (sorted by updated date) + the slider with the post search box, posts categories, latest posts, static contacts/links; Shown post information includes its thumbnail, title, category, brief-info; the user is redirected to the post's details on his/her clicking</t>
   </si>
   <si>
     <t>Post Details</t>
@@ -233,6 +228,9 @@
   </si>
   <si>
     <t>Post Details Edit</t>
+  </si>
+  <si>
+    <t>Sale</t>
   </si>
   <si>
     <t>Show detailed post information (thumbnail, category, title, brief information,  description, flag to turn the featurning on/off, status), from that allow the user to input, view or edit them</t>
@@ -347,9 +345,6 @@
     <t>Registrations List</t>
   </si>
   <si>
-    <t>Sale</t>
-  </si>
-  <si>
     <t>Show the list of users' registrations
 - Each registration includes below information: id, email, registration time, subject,  package, total cost, status, valid from, valid to, last updated by;
 - The user can filter the list by subject (searchable), registration time (from, to), status + can search by the email
@@ -361,6 +356,9 @@
   </si>
   <si>
     <t>Show detailed registration information (subject, package with list price/sale price, full name, gender, email, mobile), registration time, sale, status, valid from, valid to, notes) from that for the user to add new or change the status of a registration with relevant notes (if a registration is created by the user, then s/he can edit other registration information). On changing a registration status to Paid, if the user with relevant registered email does not exist, the system would create one and send back to the user the login information (link, email, pass) along with the other notification notes</t>
+  </si>
+  <si>
+    <t>Bỏ</t>
   </si>
   <si>
     <t>Users List</t>
@@ -437,18 +435,28 @@
   <si>
     <t>Show list of income by City</t>
   </si>
-  <si>
-    <t>Bỏ</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="33">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -528,20 +536,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
@@ -555,8 +549,152 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -565,13 +703,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79992065187536243"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.799920651875362"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,8 +719,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -605,101 +929,389 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="32" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="32" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="32" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="32" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="32" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="4" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="4" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="13" fillId="4" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="14" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="50">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="Normal 2" xfId="32"/>
+    <cellStyle name="20% - Accent5" xfId="33" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="34" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="35" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="36" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="38" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="39" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="40" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="41" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="42" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="43" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="44" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="45" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="46" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="48" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="49" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -721,7 +1333,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1023,1264 +1635,1264 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="119" zoomScaleNormal="119" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I32" sqref="I32"/>
+      <pane ySplit="9" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="10.8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.69921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.69921875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.796875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="62.69921875" style="2" customWidth="1"/>
-    <col min="7" max="228" width="8.796875" style="1" customWidth="1"/>
-    <col min="229" max="16384" width="10.796875" style="1"/>
+    <col min="1" max="1" width="3" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.7" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.3" style="2" customWidth="1"/>
+    <col min="4" max="4" width="7.7" style="2" customWidth="1"/>
+    <col min="5" max="5" width="7.8" style="2" customWidth="1"/>
+    <col min="6" max="6" width="62.7" style="3" customWidth="1"/>
+    <col min="7" max="228" width="8.8" style="2" customWidth="1"/>
+    <col min="229" max="16384" width="10.8" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" hidden="1">
-      <c r="B1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" hidden="1">
-      <c r="B2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" hidden="1">
-      <c r="B3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" hidden="1">
-      <c r="B4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" ht="19.2" hidden="1">
-      <c r="E5" s="4" t="s">
+    <row r="1" hidden="1" spans="2:5">
+      <c r="B1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" hidden="1" spans="2:5">
+      <c r="B2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" hidden="1" spans="2:5">
+      <c r="B3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" hidden="1" spans="2:5">
+      <c r="B4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" ht="19.2" hidden="1" spans="5:5">
+      <c r="E5" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.6" hidden="1">
-      <c r="E6" s="5" t="s">
+    <row r="6" ht="15.6" hidden="1" spans="5:5">
+      <c r="E6" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="17.399999999999999" hidden="1">
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" ht="18" hidden="1">
-      <c r="A8" s="1" t="s">
+    <row r="7" ht="17.4" hidden="1" spans="4:4">
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" ht="18" hidden="1" spans="1:4">
+      <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="10">
         <f>SUM(D10:D49)</f>
         <v>4740</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1">
-      <c r="A9" s="10" t="s">
+    <row r="9" hidden="1" spans="1:6">
+      <c r="A9" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="39.6">
-      <c r="A10" s="11">
+    <row r="10" ht="39.6" spans="1:8">
+      <c r="A10" s="12">
         <f>ROW()-9</f>
         <v>1</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="13">
         <f t="shared" ref="D10:D49" si="0">IF(E10="Complex",240,IF(E10="Medium",120,60))</f>
         <v>60</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="52.8">
-      <c r="A11" s="11">
+    <row r="11" ht="52.8" spans="1:8">
+      <c r="A11" s="12">
         <f t="shared" ref="A11:A49" si="1">ROW()-9</f>
         <v>2</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="13">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="79.2">
-      <c r="A12" s="11">
+    <row r="12" ht="79.2" spans="1:8">
+      <c r="A12" s="12">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="13">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="52.8">
-      <c r="A13" s="11">
+    <row r="13" ht="52.8" spans="1:8">
+      <c r="A13" s="12">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="16">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="39.6">
-      <c r="A14" s="11">
+    <row r="14" ht="39.6" spans="1:8">
+      <c r="A14" s="12">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="13">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="26.4">
-      <c r="A15" s="11">
+    <row r="15" ht="26.4" spans="1:8">
+      <c r="A15" s="12">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="13">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="105.6">
-      <c r="A16" s="11">
+    <row r="16" ht="105.6" spans="1:8">
+      <c r="A16" s="12">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="13">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="52.8">
-      <c r="A17" s="11">
+    <row r="17" ht="52.8" spans="1:8">
+      <c r="A17" s="12">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="13">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="39.6">
-      <c r="A18" s="11">
+    <row r="18" ht="26.4" spans="1:8">
+      <c r="A18" s="12">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="13">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="92.4">
-      <c r="A19" s="11">
+    <row r="19" ht="92.4" spans="1:8">
+      <c r="A19" s="12">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="13">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="52.8">
-      <c r="A20" s="11">
+    <row r="20" ht="52.8" spans="1:8">
+      <c r="A20" s="12">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="13">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="52.8">
-      <c r="A21" s="11">
+    <row r="21" ht="52.8" spans="1:9">
+      <c r="A21" s="12">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="13">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="13"/>
+    <row r="22" spans="1:6">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="14"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="11">
+      <c r="A23" s="12">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="13">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="17" t="s">
+      <c r="F23" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="11">
+      <c r="A24" s="12">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="13">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="17" t="s">
+      <c r="F24" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="11">
+      <c r="A25" s="12">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="13">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F25" s="17" t="s">
+      <c r="F25" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="26.4">
-      <c r="A26" s="11">
+    <row r="26" ht="26.4" spans="1:9">
+      <c r="A26" s="12">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="13">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E26" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="17" t="s">
+      <c r="F26" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="26.4">
-      <c r="A27" s="11">
+    <row r="27" ht="26.4" spans="1:9">
+      <c r="A27" s="12">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="13">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="17" t="s">
+      <c r="F27" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="39.6">
-      <c r="A28" s="11">
+    <row r="28" ht="39.6" spans="1:9">
+      <c r="A28" s="12">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="13">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="17" t="s">
+      <c r="F28" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="39.6">
-      <c r="A29" s="11">
+    <row r="29" ht="39.6" spans="1:9">
+      <c r="A29" s="12">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="13">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I29" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" ht="39.6" spans="1:9">
+      <c r="A30" s="12">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="13">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I30" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="12">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="13">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I31" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" ht="92.4" spans="1:7">
+      <c r="A32" s="12">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="13">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" ht="39.6" spans="1:7">
+      <c r="A33" s="12">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="13">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" ht="52.8" spans="1:7">
+      <c r="A34" s="12">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="13">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" ht="26.4" spans="1:7">
+      <c r="A35" s="12">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="13">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" ht="39.6" spans="1:7">
+      <c r="A36" s="12">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" s="13">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" ht="39.6" spans="1:7">
+      <c r="A37" s="12">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37" s="13">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="12">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" s="13">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" ht="92.4" spans="1:7">
+      <c r="A39" s="12">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D39" s="13">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" ht="52.8" spans="1:7">
+      <c r="A40" s="12">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D40" s="13">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F40" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" ht="39.6" spans="1:7">
+      <c r="A41" s="12">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D41" s="13">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F41" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" ht="79.2" spans="1:7">
+      <c r="A42" s="12">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D42" s="13">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F42" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="12">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D43" s="13">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F43" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" s="1" customFormat="1" ht="118.8" spans="1:7">
+      <c r="A44" s="18">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="B44" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="D29" s="12">
+      <c r="C44" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D44" s="19">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E44" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="17" t="s">
+      <c r="F44" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" s="1" customFormat="1" ht="105.6" spans="1:7">
+      <c r="A45" s="18">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="D45" s="19">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="E45" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F45" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" ht="92.4" spans="1:7">
+      <c r="A46" s="12">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D46" s="13">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" ht="52.8" spans="1:7">
+      <c r="A47" s="12">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D47" s="13">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" ht="79.2" spans="1:7">
+      <c r="A48" s="12">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D48" s="13">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" ht="26.4" spans="1:7">
+      <c r="A49" s="12">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D49" s="13">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" ht="28.8" spans="1:6">
+      <c r="A50" s="2">
+        <v>41</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D50" s="2">
+        <v>240</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="51" ht="72" spans="1:6">
+      <c r="A51" s="2">
+        <v>42</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="2">
+        <v>240</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="2">
+        <v>43</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" s="2">
+        <v>60</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="2">
         <v>44</v>
       </c>
-      <c r="I29" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="39.6">
-      <c r="A30" s="11">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="D30" s="12">
-        <f t="shared" si="0"/>
+      <c r="B53" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" s="2">
         <v>60</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E53" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F30" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I30" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="11">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="D31" s="12">
-        <f t="shared" si="0"/>
+      <c r="F53" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="54" ht="28.8" spans="1:6">
+      <c r="A54" s="2">
+        <v>45</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D54" s="2">
         <v>60</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E54" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F31" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I31" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="92.4">
-      <c r="A32" s="11">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D32" s="12">
-        <f t="shared" si="0"/>
+      <c r="F54" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="2">
+        <v>46</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E32" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="39.6">
-      <c r="A33" s="11">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D33" s="12">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F33" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="52.8">
-      <c r="A34" s="11">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D34" s="12">
-        <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F34" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="26.4">
-      <c r="A35" s="11">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D35" s="12">
-        <f t="shared" si="0"/>
+      <c r="C55" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D55" s="2">
         <v>60</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E55" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F35" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="39.6">
-      <c r="A36" s="11">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="B36" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D36" s="12">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="39.6">
-      <c r="A37" s="11">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="B37" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D37" s="12">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F37" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="11">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="B38" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D38" s="12">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F38" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="92.4">
-      <c r="A39" s="11">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="B39" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="D39" s="12">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F39" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="52.8">
-      <c r="A40" s="11">
-        <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="B40" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="D40" s="12">
-        <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F40" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="39.6">
-      <c r="A41" s="11">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="B41" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="D41" s="12">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F41" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="79.2">
-      <c r="A42" s="11">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="B42" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="D42" s="12">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F42" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="11">
-        <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
-      <c r="B43" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="D43" s="12">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F43" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" s="20" customFormat="1" ht="118.8">
-      <c r="A44" s="21">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="B44" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="C44" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D44" s="23">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="E44" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F44" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="G44" s="20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" s="20" customFormat="1" ht="105.6">
-      <c r="A45" s="21">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="B45" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="C45" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D45" s="23">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="E45" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F45" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="G45" s="20" t="s">
+      <c r="F55" s="3" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="92.4">
-      <c r="A46" s="11">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="B46" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D46" s="12">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F46" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="52.8">
-      <c r="A47" s="11">
-        <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="B47" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D47" s="12">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="E47" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F47" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="79.2">
-      <c r="A48" s="11">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="B48" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D48" s="12">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F48" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="26.4">
-      <c r="A49" s="11">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="B49" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D49" s="12">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F49" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="28.8">
-      <c r="A50" s="1">
-        <v>41</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D50" s="1">
-        <v>240</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="72">
-      <c r="A51" s="1">
-        <v>42</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D51" s="1">
-        <v>240</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="1">
-        <v>43</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D52" s="1">
-        <v>60</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="1">
-        <v>44</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D53" s="1">
-        <v>60</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="28.8">
-      <c r="A54" s="1">
-        <v>45</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D54" s="1">
-        <v>60</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="1">
-        <v>46</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D55" s="1">
-        <v>60</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2290,7 +2902,8 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/SWP/References/OnlineLearn_Function Details.xlsx
+++ b/SWP/References/OnlineLearn_Function Details.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="119">
   <si>
     <t>THE APPLICATION DEVELOPMENT PROJECT TOPIC (SWP391)</t>
   </si>
@@ -250,9 +250,6 @@
     <t>Show detailed slider information (image, title, backlink, status, notes)</t>
   </si>
   <si>
-    <t>Subjects List</t>
-  </si>
-  <si>
     <t>Course Content</t>
   </si>
   <si>
@@ -267,13 +264,10 @@
     <t>Tú Anh</t>
   </si>
   <si>
-    <t>New Subject</t>
+    <t>New Course</t>
   </si>
   <si>
     <t>The screen is shown with below information for the user to input new course information: name, thumbnail image, category, featured flag, owner, status, and description</t>
-  </si>
-  <si>
-    <t>Subject Details</t>
   </si>
   <si>
     <t>This page allows the admin and the assigned expert to access and prepare the subject information, including the course general information, the dimension, and price package. Only the admin can change the status to Published or Unpublished + add/edit the price packages</t>
@@ -356,9 +350,6 @@
   </si>
   <si>
     <t>Show detailed registration information (subject, package with list price/sale price, full name, gender, email, mobile), registration time, sale, status, valid from, valid to, notes) from that for the user to add new or change the status of a registration with relevant notes (if a registration is created by the user, then s/he can edit other registration information). On changing a registration status to Paid, if the user with relevant registered email does not exist, the system would create one and send back to the user the login information (link, email, pass) along with the other notification notes</t>
-  </si>
-  <si>
-    <t>Bỏ</t>
   </si>
   <si>
     <t>Users List</t>
@@ -446,7 +437,7 @@
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="36">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -550,8 +541,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -559,13 +568,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -579,6 +581,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -587,37 +643,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -634,11 +659,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -649,52 +702,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -721,187 +730,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -933,32 +936,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -978,26 +957,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1019,6 +989,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1030,7 +1033,7 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1046,135 +1049,135 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="32" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="32" applyFill="1"/>
@@ -1230,6 +1233,20 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="4" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="32" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="32" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="top"/>
     </xf>
@@ -1246,6 +1263,12 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1646,9 +1669,9 @@
   <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="119" zoomScaleNormal="119" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8" defaultRowHeight="14.4"/>
@@ -1734,10 +1757,10 @@
         <f>ROW()-9</f>
         <v>1</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="27" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="13">
@@ -1747,7 +1770,7 @@
       <c r="E10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="28" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -1762,10 +1785,10 @@
         <f t="shared" ref="A11:A49" si="1">ROW()-9</f>
         <v>2</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="27" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="13">
@@ -1775,7 +1798,7 @@
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="28" t="s">
         <v>17</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -1790,10 +1813,10 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="27" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="13">
@@ -1803,7 +1826,7 @@
       <c r="E12" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="28" t="s">
         <v>20</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -1818,10 +1841,10 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="29" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="16">
@@ -1831,7 +1854,7 @@
       <c r="E13" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="30" t="s">
         <v>24</v>
       </c>
       <c r="G13" s="2" t="s">
@@ -1846,10 +1869,10 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="27" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="13">
@@ -1859,7 +1882,7 @@
       <c r="E14" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="28" t="s">
         <v>27</v>
       </c>
       <c r="G14" s="2" t="s">
@@ -1874,10 +1897,10 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="27" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="13">
@@ -1887,7 +1910,7 @@
       <c r="E15" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="28" t="s">
         <v>29</v>
       </c>
       <c r="G15" s="2" t="s">
@@ -2078,10 +2101,10 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="27" t="s">
         <v>46</v>
       </c>
       <c r="D23" s="13">
@@ -2091,7 +2114,7 @@
       <c r="E23" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="22" t="s">
+      <c r="F23" s="28" t="s">
         <v>47</v>
       </c>
       <c r="G23" s="2" t="s">
@@ -2106,10 +2129,10 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="27" t="s">
         <v>46</v>
       </c>
       <c r="D24" s="13">
@@ -2119,7 +2142,7 @@
       <c r="E24" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="22" t="s">
+      <c r="F24" s="28" t="s">
         <v>50</v>
       </c>
       <c r="G24" s="2" t="s">
@@ -2134,10 +2157,10 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="27" t="s">
         <v>46</v>
       </c>
       <c r="D25" s="13">
@@ -2147,7 +2170,7 @@
       <c r="E25" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F25" s="22" t="s">
+      <c r="F25" s="28" t="s">
         <v>52</v>
       </c>
       <c r="G25" s="2" t="s">
@@ -2162,10 +2185,10 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="27" t="s">
         <v>54</v>
       </c>
       <c r="D26" s="13">
@@ -2175,7 +2198,7 @@
       <c r="E26" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="22" t="s">
+      <c r="F26" s="28" t="s">
         <v>55</v>
       </c>
       <c r="G26" s="2" t="s">
@@ -2190,10 +2213,10 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="27" t="s">
         <v>54</v>
       </c>
       <c r="D27" s="13">
@@ -2203,7 +2226,7 @@
       <c r="E27" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="22" t="s">
+      <c r="F27" s="28" t="s">
         <v>57</v>
       </c>
       <c r="G27" s="2" t="s">
@@ -2218,10 +2241,10 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="27" t="s">
         <v>59</v>
       </c>
       <c r="D28" s="13">
@@ -2231,7 +2254,7 @@
       <c r="E28" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="22" t="s">
+      <c r="F28" s="28" t="s">
         <v>60</v>
       </c>
       <c r="G28" s="2" t="s">
@@ -2246,10 +2269,10 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="27" t="s">
         <v>62</v>
       </c>
       <c r="D29" s="13">
@@ -2259,7 +2282,7 @@
       <c r="E29" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="22" t="s">
+      <c r="F29" s="28" t="s">
         <v>63</v>
       </c>
       <c r="G29" s="2" t="s">
@@ -2274,10 +2297,10 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="27" t="s">
         <v>62</v>
       </c>
       <c r="D30" s="13">
@@ -2287,7 +2310,7 @@
       <c r="E30" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F30" s="22" t="s">
+      <c r="F30" s="28" t="s">
         <v>65</v>
       </c>
       <c r="G30" s="2" t="s">
@@ -2302,10 +2325,10 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="27" t="s">
         <v>62</v>
       </c>
       <c r="D31" s="13">
@@ -2315,7 +2338,7 @@
       <c r="E31" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F31" s="22" t="s">
+      <c r="F31" s="28" t="s">
         <v>67</v>
       </c>
       <c r="G31" s="2" t="s">
@@ -2330,11 +2353,11 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="27" t="s">
         <v>68</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>69</v>
       </c>
       <c r="D32" s="13">
         <f t="shared" si="0"/>
@@ -2343,11 +2366,11 @@
       <c r="E32" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F32" s="22" t="s">
+      <c r="F32" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="33" ht="39.6" spans="1:7">
@@ -2355,11 +2378,11 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B33" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>69</v>
+      <c r="B33" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>68</v>
       </c>
       <c r="D33" s="13">
         <f t="shared" si="0"/>
@@ -2368,11 +2391,11 @@
       <c r="E33" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F33" s="22" t="s">
-        <v>73</v>
+      <c r="F33" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" ht="52.8" spans="1:7">
@@ -2380,11 +2403,11 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B34" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="C34" s="21" t="s">
-        <v>69</v>
+      <c r="B34" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>68</v>
       </c>
       <c r="D34" s="13">
         <f t="shared" si="0"/>
@@ -2393,36 +2416,36 @@
       <c r="E34" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F34" s="22" t="s">
+      <c r="F34" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" ht="26.4" spans="1:7">
+      <c r="A35" s="18">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="B35" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" s="19">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="G34" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35" ht="26.4" spans="1:7">
-      <c r="A35" s="12">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="B35" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="C35" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="D35" s="13">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="22" t="s">
-        <v>77</v>
-      </c>
       <c r="G35" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" ht="39.6" spans="1:7">
@@ -2430,11 +2453,11 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B36" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="C36" s="21" t="s">
-        <v>69</v>
+      <c r="B36" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>68</v>
       </c>
       <c r="D36" s="13">
         <f t="shared" si="0"/>
@@ -2443,11 +2466,11 @@
       <c r="E36" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F36" s="22" t="s">
-        <v>79</v>
+      <c r="F36" s="28" t="s">
+        <v>77</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" ht="39.6" spans="1:7">
@@ -2455,11 +2478,11 @@
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B37" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="C37" s="21" t="s">
-        <v>69</v>
+      <c r="B37" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>68</v>
       </c>
       <c r="D37" s="13">
         <f t="shared" si="0"/>
@@ -2468,11 +2491,11 @@
       <c r="E37" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F37" s="22" t="s">
-        <v>82</v>
+      <c r="F37" s="28" t="s">
+        <v>80</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2480,11 +2503,11 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B38" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C38" s="21" t="s">
-        <v>69</v>
+      <c r="B38" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>68</v>
       </c>
       <c r="D38" s="13">
         <f t="shared" si="0"/>
@@ -2493,11 +2516,11 @@
       <c r="E38" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F38" s="22" t="s">
-        <v>84</v>
+      <c r="F38" s="28" t="s">
+        <v>82</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" ht="92.4" spans="1:7">
@@ -2505,11 +2528,11 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B39" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>86</v>
+      <c r="B39" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>84</v>
       </c>
       <c r="D39" s="13">
         <f t="shared" si="0"/>
@@ -2518,11 +2541,11 @@
       <c r="E39" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F39" s="22" t="s">
-        <v>87</v>
+      <c r="F39" s="28" t="s">
+        <v>85</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" ht="52.8" spans="1:7">
@@ -2530,11 +2553,11 @@
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="B40" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="C40" s="21" t="s">
+      <c r="B40" s="27" t="s">
         <v>86</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>84</v>
       </c>
       <c r="D40" s="13">
         <f t="shared" si="0"/>
@@ -2543,11 +2566,11 @@
       <c r="E40" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F40" s="22" t="s">
-        <v>89</v>
+      <c r="F40" s="28" t="s">
+        <v>87</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" ht="39.6" spans="1:7">
@@ -2555,11 +2578,11 @@
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="B41" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="C41" s="21" t="s">
-        <v>86</v>
+      <c r="B41" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>84</v>
       </c>
       <c r="D41" s="13">
         <f t="shared" si="0"/>
@@ -2568,11 +2591,11 @@
       <c r="E41" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F41" s="22" t="s">
-        <v>91</v>
+      <c r="F41" s="28" t="s">
+        <v>89</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" ht="79.2" spans="1:7">
@@ -2580,11 +2603,11 @@
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="B42" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="C42" s="21" t="s">
-        <v>86</v>
+      <c r="B42" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>84</v>
       </c>
       <c r="D42" s="13">
         <f t="shared" si="0"/>
@@ -2593,11 +2616,11 @@
       <c r="E42" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F42" s="22" t="s">
-        <v>93</v>
+      <c r="F42" s="28" t="s">
+        <v>91</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2605,11 +2628,11 @@
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="B43" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="C43" s="21" t="s">
-        <v>86</v>
+      <c r="B43" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>84</v>
       </c>
       <c r="D43" s="13">
         <f t="shared" si="0"/>
@@ -2618,111 +2641,109 @@
       <c r="E43" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F43" s="22" t="s">
+      <c r="F43" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" s="1" customFormat="1" ht="118.8" spans="1:7">
+      <c r="A44" s="21">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="B44" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="D44" s="22">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="E44" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F44" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="G43" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="44" s="1" customFormat="1" ht="118.8" spans="1:7">
-      <c r="A44" s="18">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="B44" s="25" t="s">
+      <c r="G44" s="24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" s="1" customFormat="1" ht="105.6" spans="1:7">
+      <c r="A45" s="21">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="B45" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="C44" s="25" t="s">
+      <c r="C45" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="D44" s="19">
+      <c r="D45" s="22">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="E44" s="18" t="s">
+      <c r="E45" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F44" s="26" t="s">
+      <c r="F45" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="45" s="1" customFormat="1" ht="105.6" spans="1:7">
-      <c r="A45" s="18">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="B45" s="25" t="s">
+      <c r="G45" s="24"/>
+    </row>
+    <row r="46" ht="92.4" spans="1:7">
+      <c r="A46" s="18">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="B46" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="C45" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="D45" s="19">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="E45" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F45" s="26" t="s">
+      <c r="C46" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="D46" s="19">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E46" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="32" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" ht="92.4" spans="1:7">
-      <c r="A46" s="12">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="B46" s="21" t="s">
+      <c r="G46" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" ht="52.8" spans="1:7">
+      <c r="A47" s="18">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="B47" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="C46" s="21" t="s">
+      <c r="C47" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="D47" s="19">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E47" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="D46" s="13">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F46" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="47" ht="52.8" spans="1:7">
-      <c r="A47" s="12">
-        <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="B47" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="C47" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="D47" s="13">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F47" s="22" t="s">
-        <v>105</v>
-      </c>
       <c r="G47" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48" ht="79.2" spans="1:7">
@@ -2730,11 +2751,11 @@
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="B48" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="C48" s="21" t="s">
-        <v>102</v>
+      <c r="B48" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48" s="27" t="s">
+        <v>99</v>
       </c>
       <c r="D48" s="13">
         <f t="shared" si="0"/>
@@ -2743,11 +2764,11 @@
       <c r="E48" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F48" s="22" t="s">
-        <v>107</v>
+      <c r="F48" s="28" t="s">
+        <v>104</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49" ht="26.4" spans="1:7">
@@ -2755,11 +2776,11 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="B49" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="C49" s="21" t="s">
-        <v>102</v>
+      <c r="B49" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" s="27" t="s">
+        <v>99</v>
       </c>
       <c r="D49" s="13">
         <f t="shared" si="0"/>
@@ -2768,11 +2789,11 @@
       <c r="E49" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F49" s="22" t="s">
-        <v>109</v>
+      <c r="F49" s="28" t="s">
+        <v>106</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50" ht="28.8" spans="1:6">
@@ -2780,10 +2801,10 @@
         <v>41</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D50" s="2">
         <v>240</v>
@@ -2792,7 +2813,7 @@
         <v>23</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="51" ht="72" spans="1:6">
@@ -2800,7 +2821,7 @@
         <v>42</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>11</v>
@@ -2812,7 +2833,7 @@
         <v>23</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2820,7 +2841,7 @@
         <v>43</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>11</v>
@@ -2832,7 +2853,7 @@
         <v>12</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2840,7 +2861,7 @@
         <v>44</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>11</v>
@@ -2852,7 +2873,7 @@
         <v>12</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="54" ht="28.8" spans="1:6">
@@ -2860,10 +2881,10 @@
         <v>45</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D54" s="2">
         <v>60</v>
@@ -2872,27 +2893,27 @@
         <v>12</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="2">
+      <c r="A55" s="25">
         <v>46</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C55" s="2" t="s">
+      <c r="B55" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55" s="25">
         <v>60</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="E55" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F55" s="3" t="s">
-        <v>121</v>
+      <c r="F55" s="26" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/SWP/References/OnlineLearn_Function Details.xlsx
+++ b/SWP/References/OnlineLearn_Function Details.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="120">
   <si>
     <t>THE APPLICATION DEVELOPMENT PROJECT TOPIC (SWP391)</t>
   </si>
@@ -173,18 +173,24 @@
     <t>Course Register</t>
   </si>
   <si>
-    <t>This is a pop-up screen which allow the user to register for access a subject. On this screen, the user needs to choose appropriate subject price package &amp; input his/her information (full name, email, mobile, gender); A logged in user doesn't have to input those contact information</t>
+    <t>This is a pop-up screen which allow the user to register for access a subject. On this screen, the user needs to choose appropriate subject price package.</t>
   </si>
   <si>
     <t>Nhóm Mạnh</t>
   </si>
   <si>
+    <t>Section List</t>
+  </si>
+  <si>
+    <t>Learning</t>
+  </si>
+  <si>
+    <t>This screen show list of content in a specific course</t>
+  </si>
+  <si>
     <t>My Courses</t>
   </si>
   <si>
-    <t>Customer</t>
-  </si>
-  <si>
     <t>for the customer to view his/her access-allowed courses</t>
   </si>
   <si>
@@ -204,9 +210,6 @@
   </si>
   <si>
     <t>Quiz Handle</t>
-  </si>
-  <si>
-    <t>Learning</t>
   </si>
   <si>
     <t>This screen allows the user to browse and answer the quiz questions and flag the important question for review</t>
@@ -433,8 +436,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="36">
@@ -560,14 +563,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -581,9 +592,71 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -597,32 +670,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -630,37 +693,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -673,35 +705,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -730,181 +733,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -933,11 +936,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -957,21 +975,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -983,24 +986,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1022,6 +1007,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1033,7 +1036,7 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1049,135 +1052,135 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="32" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="32" applyFill="1"/>
@@ -1243,7 +1246,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="32" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="32" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1666,12 +1668,12 @@
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="119" zoomScaleNormal="119" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="9" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8" defaultRowHeight="14.4"/>
@@ -1728,8 +1730,8 @@
         <v>3</v>
       </c>
       <c r="D8" s="10">
-        <f>SUM(D10:D49)</f>
-        <v>4740</v>
+        <f>SUM(D10:D50)</f>
+        <v>4800</v>
       </c>
     </row>
     <row r="9" hidden="1" spans="1:6">
@@ -1757,20 +1759,20 @@
         <f>ROW()-9</f>
         <v>1</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="26" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="13">
-        <f t="shared" ref="D10:D49" si="0">IF(E10="Complex",240,IF(E10="Medium",120,60))</f>
+        <f>IF(E10="Complex",240,IF(E10="Medium",120,60))</f>
         <v>60</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="27" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -1782,23 +1784,23 @@
     </row>
     <row r="11" ht="52.8" spans="1:8">
       <c r="A11" s="12">
-        <f t="shared" ref="A11:A49" si="1">ROW()-9</f>
+        <f>ROW()-9</f>
         <v>2</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="26" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="13">
-        <f t="shared" si="0"/>
+        <f>IF(E11="Complex",240,IF(E11="Medium",120,60))</f>
         <v>60</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="F11" s="27" t="s">
         <v>17</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -1810,23 +1812,23 @@
     </row>
     <row r="12" ht="79.2" spans="1:8">
       <c r="A12" s="12">
-        <f t="shared" si="1"/>
+        <f>ROW()-9</f>
         <v>3</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="26" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="13">
-        <f t="shared" si="0"/>
+        <f>IF(E12="Complex",240,IF(E12="Medium",120,60))</f>
         <v>120</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="28" t="s">
+      <c r="F12" s="27" t="s">
         <v>20</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -1838,23 +1840,23 @@
     </row>
     <row r="13" ht="52.8" spans="1:8">
       <c r="A13" s="12">
-        <f t="shared" si="1"/>
+        <f>ROW()-9</f>
         <v>4</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="28" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="16">
-        <f t="shared" si="0"/>
+        <f>IF(E13="Complex",240,IF(E13="Medium",120,60))</f>
         <v>240</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="29" t="s">
         <v>24</v>
       </c>
       <c r="G13" s="2" t="s">
@@ -1866,23 +1868,23 @@
     </row>
     <row r="14" ht="39.6" spans="1:8">
       <c r="A14" s="12">
-        <f t="shared" si="1"/>
+        <f>ROW()-9</f>
         <v>5</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="26" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="13">
-        <f t="shared" si="0"/>
+        <f>IF(E14="Complex",240,IF(E14="Medium",120,60))</f>
         <v>60</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="F14" s="27" t="s">
         <v>27</v>
       </c>
       <c r="G14" s="2" t="s">
@@ -1894,23 +1896,23 @@
     </row>
     <row r="15" ht="26.4" spans="1:8">
       <c r="A15" s="12">
-        <f t="shared" si="1"/>
+        <f>ROW()-9</f>
         <v>6</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="26" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="13">
-        <f t="shared" si="0"/>
+        <f>IF(E15="Complex",240,IF(E15="Medium",120,60))</f>
         <v>60</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="28" t="s">
+      <c r="F15" s="27" t="s">
         <v>29</v>
       </c>
       <c r="G15" s="2" t="s">
@@ -1922,7 +1924,7 @@
     </row>
     <row r="16" ht="105.6" spans="1:8">
       <c r="A16" s="12">
-        <f t="shared" si="1"/>
+        <f>ROW()-9</f>
         <v>7</v>
       </c>
       <c r="B16" s="12" t="s">
@@ -1932,7 +1934,7 @@
         <v>32</v>
       </c>
       <c r="D16" s="13">
-        <f t="shared" si="0"/>
+        <f>IF(E16="Complex",240,IF(E16="Medium",120,60))</f>
         <v>120</v>
       </c>
       <c r="E16" s="12" t="s">
@@ -1950,7 +1952,7 @@
     </row>
     <row r="17" ht="52.8" spans="1:8">
       <c r="A17" s="12">
-        <f t="shared" si="1"/>
+        <f>ROW()-9</f>
         <v>8</v>
       </c>
       <c r="B17" s="12" t="s">
@@ -1960,7 +1962,7 @@
         <v>32</v>
       </c>
       <c r="D17" s="13">
-        <f t="shared" si="0"/>
+        <f>IF(E17="Complex",240,IF(E17="Medium",120,60))</f>
         <v>60</v>
       </c>
       <c r="E17" s="12" t="s">
@@ -1978,7 +1980,7 @@
     </row>
     <row r="18" ht="26.4" spans="1:8">
       <c r="A18" s="12">
-        <f t="shared" si="1"/>
+        <f>ROW()-9</f>
         <v>9</v>
       </c>
       <c r="B18" s="12" t="s">
@@ -1988,7 +1990,7 @@
         <v>32</v>
       </c>
       <c r="D18" s="13">
-        <f t="shared" si="0"/>
+        <f>IF(E18="Complex",240,IF(E18="Medium",120,60))</f>
         <v>60</v>
       </c>
       <c r="E18" s="12" t="s">
@@ -2006,7 +2008,7 @@
     </row>
     <row r="19" ht="92.4" spans="1:8">
       <c r="A19" s="12">
-        <f t="shared" si="1"/>
+        <f>ROW()-9</f>
         <v>10</v>
       </c>
       <c r="B19" s="12" t="s">
@@ -2016,7 +2018,7 @@
         <v>32</v>
       </c>
       <c r="D19" s="13">
-        <f t="shared" si="0"/>
+        <f>IF(E19="Complex",240,IF(E19="Medium",120,60))</f>
         <v>240</v>
       </c>
       <c r="E19" s="12" t="s">
@@ -2034,7 +2036,7 @@
     </row>
     <row r="20" ht="52.8" spans="1:8">
       <c r="A20" s="12">
-        <f t="shared" si="1"/>
+        <f>ROW()-9</f>
         <v>11</v>
       </c>
       <c r="B20" s="12" t="s">
@@ -2044,7 +2046,7 @@
         <v>32</v>
       </c>
       <c r="D20" s="13">
-        <f t="shared" si="0"/>
+        <f>IF(E20="Complex",240,IF(E20="Medium",120,60))</f>
         <v>120</v>
       </c>
       <c r="E20" s="12" t="s">
@@ -2060,9 +2062,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" ht="52.8" spans="1:9">
+    <row r="21" ht="26.4" spans="1:9">
       <c r="A21" s="12">
-        <f t="shared" si="1"/>
+        <f>ROW()-9</f>
         <v>12</v>
       </c>
       <c r="B21" s="12" t="s">
@@ -2072,7 +2074,7 @@
         <v>32</v>
       </c>
       <c r="D21" s="13">
-        <f t="shared" si="0"/>
+        <f>IF(E21="Complex",240,IF(E21="Medium",120,60))</f>
         <v>120</v>
       </c>
       <c r="E21" s="12" t="s">
@@ -2096,57 +2098,47 @@
       <c r="E22" s="12"/>
       <c r="F22" s="14"/>
     </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="12">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="B23" s="27" t="s">
+    <row r="23" spans="1:6">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="12" t="s">
         <v>46</v>
       </c>
       <c r="D23" s="13">
-        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="28" t="s">
+      <c r="F23" s="14" t="s">
         <v>47</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I23" s="2">
-        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A24:A50" si="0">ROW()-9</f>
         <v>15</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="13">
+        <f t="shared" ref="D24:D50" si="1">IF(E24="Complex",240,IF(E24="Medium",120,60))</f>
+        <v>60</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="13">
-        <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" s="28" t="s">
+      <c r="G24" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="I24" s="2">
         <v>2</v>
@@ -2154,52 +2146,52 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="12">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="13">
         <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="13">
-        <f t="shared" si="0"/>
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F25" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="27" t="s">
         <v>52</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I25" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="26" ht="26.4" spans="1:9">
+    <row r="26" spans="1:9">
       <c r="A26" s="12">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="13">
         <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="B26" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="27" t="s">
         <v>54</v>
-      </c>
-      <c r="D26" s="13">
-        <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F26" s="28" t="s">
-        <v>55</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>44</v>
@@ -2210,24 +2202,24 @@
     </row>
     <row r="27" ht="26.4" spans="1:9">
       <c r="A27" s="12">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="13">
         <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="B27" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="13">
-        <f t="shared" si="0"/>
         <v>240</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="28" t="s">
-        <v>57</v>
+      <c r="F27" s="27" t="s">
+        <v>56</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>44</v>
@@ -2236,29 +2228,29 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" ht="39.6" spans="1:9">
+    <row r="28" ht="26.4" spans="1:9">
       <c r="A28" s="12">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="13">
         <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="B28" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D28" s="13">
-        <f t="shared" si="0"/>
         <v>240</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="28" t="s">
-        <v>60</v>
+      <c r="F28" s="27" t="s">
+        <v>58</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I28" s="2">
         <v>2</v>
@@ -2266,27 +2258,27 @@
     </row>
     <row r="29" ht="39.6" spans="1:9">
       <c r="A29" s="12">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="13">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="B29" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="D29" s="13">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F29" s="28" t="s">
-        <v>63</v>
-      </c>
       <c r="G29" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I29" s="2">
         <v>2</v>
@@ -2294,24 +2286,24 @@
     </row>
     <row r="30" ht="39.6" spans="1:9">
       <c r="A30" s="12">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="13">
         <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="B30" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="27" t="s">
         <v>64</v>
-      </c>
-      <c r="C30" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="D30" s="13">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="28" t="s">
-        <v>65</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>44</v>
@@ -2320,26 +2312,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" ht="39.6" spans="1:9">
       <c r="A31" s="12">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="13">
         <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="B31" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="D31" s="13">
-        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F31" s="28" t="s">
-        <v>67</v>
+      <c r="F31" s="27" t="s">
+        <v>66</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>44</v>
@@ -2348,483 +2340,491 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" ht="92.4" spans="1:7">
+    <row r="32" spans="1:9">
       <c r="A32" s="12">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="13">
         <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="B32" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I32" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" ht="92.4" spans="1:7">
+      <c r="A33" s="12">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B33" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="D32" s="13">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F32" s="28" t="s">
+      <c r="C33" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" ht="39.6" spans="1:7">
-      <c r="A33" s="12">
+      <c r="D33" s="13">
         <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="B33" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="C33" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="D33" s="13">
-        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F33" s="28" t="s">
+      <c r="F33" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" ht="39.6" spans="1:7">
+      <c r="A34" s="12">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B34" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" ht="52.8" spans="1:7">
-      <c r="A34" s="12">
+      <c r="C34" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="13">
         <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="B34" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" ht="52.8" spans="1:7">
+      <c r="A35" s="12">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B35" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="D34" s="13">
+      <c r="C35" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="13">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" ht="26.4" spans="1:7">
+      <c r="A36" s="18">
         <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F34" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" ht="26.4" spans="1:7">
-      <c r="A35" s="18">
+        <v>27</v>
+      </c>
+      <c r="B36" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" s="19">
         <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="B35" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="C35" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="D35" s="19">
-        <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="E35" s="18" t="s">
+      <c r="E36" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F35" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" ht="39.6" spans="1:7">
-      <c r="A36" s="12">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="B36" s="27" t="s">
+      <c r="F36" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="C36" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="D36" s="13">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" s="28" t="s">
-        <v>77</v>
-      </c>
       <c r="G36" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" ht="39.6" spans="1:7">
       <c r="A37" s="12">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37" s="13">
         <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="B37" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C37" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="D37" s="13">
+    </row>
+    <row r="38" ht="39.6" spans="1:7">
+      <c r="A38" s="12">
         <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F37" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="G37" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="12">
+      <c r="C38" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" s="13">
         <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="B38" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="C38" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="D38" s="13">
-        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F38" s="28" t="s">
+      <c r="F38" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="12">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B39" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="39" ht="92.4" spans="1:7">
-      <c r="A39" s="12">
+      <c r="C39" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" s="13">
         <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="B39" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="C39" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="D39" s="13">
-        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F39" s="28" t="s">
+      <c r="F39" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" ht="92.4" spans="1:7">
+      <c r="A40" s="12">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="G39" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="40" ht="52.8" spans="1:7">
-      <c r="A40" s="12">
+      <c r="D40" s="13">
         <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="B40" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="C40" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="D40" s="13">
+      <c r="G40" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" ht="52.8" spans="1:7">
+      <c r="A41" s="12">
         <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B41" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" s="13">
+        <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="E40" s="12" t="s">
+      <c r="E41" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F40" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="41" ht="39.6" spans="1:7">
-      <c r="A41" s="12">
+      <c r="F41" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" ht="39.6" spans="1:7">
+      <c r="A42" s="12">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B42" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D42" s="13">
         <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="B41" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="C41" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="D41" s="13">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F41" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="42" ht="79.2" spans="1:7">
-      <c r="A42" s="12">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="B42" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="C42" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="D42" s="13">
-        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="E42" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F42" s="28" t="s">
+      <c r="F42" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" ht="79.2" spans="1:7">
+      <c r="A43" s="12">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B43" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="G42" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="12">
+      <c r="C43" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" s="13">
         <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
-      <c r="B43" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="C43" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="D43" s="13">
-        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F43" s="28" t="s">
+      <c r="F43" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="12">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B44" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="G43" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="44" s="1" customFormat="1" ht="118.8" spans="1:7">
-      <c r="A44" s="21">
+      <c r="C44" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D44" s="13">
         <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="B44" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F44" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="C44" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="D44" s="22">
+      <c r="G44" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" s="1" customFormat="1" ht="118.8" spans="1:7">
+      <c r="A45" s="21">
         <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="E44" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F44" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="G44" s="24" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="45" s="1" customFormat="1" ht="105.6" spans="1:7">
-      <c r="A45" s="21">
+      <c r="C45" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D45" s="22">
         <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="B45" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="C45" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="D45" s="22">
-        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="E45" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F45" s="34" t="s">
+      <c r="F45" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="G45" s="24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" s="1" customFormat="1" ht="105.6" spans="1:7">
+      <c r="A46" s="21">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B46" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="G45" s="24"/>
-    </row>
-    <row r="46" ht="92.4" spans="1:7">
-      <c r="A46" s="18">
+      <c r="C46" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D46" s="22">
         <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="B46" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="E46" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F46" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="C46" s="31" t="s">
+      <c r="G46" s="24"/>
+    </row>
+    <row r="47" ht="92.4" spans="1:7">
+      <c r="A47" s="18">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B47" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="D46" s="19">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="E46" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F46" s="32" t="s">
+      <c r="C47" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="G46" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="47" ht="52.8" spans="1:7">
-      <c r="A47" s="18">
+      <c r="D47" s="19">
         <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="B47" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="C47" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="D47" s="19">
-        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="E47" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F47" s="32" t="s">
+      <c r="F47" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" ht="52.8" spans="1:7">
+      <c r="A48" s="18">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B48" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="G47" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="48" ht="79.2" spans="1:7">
-      <c r="A48" s="12">
+      <c r="C48" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D48" s="19">
         <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="B48" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="C48" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="D48" s="13">
+      <c r="G48" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" ht="79.2" spans="1:7">
+      <c r="A49" s="12">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F48" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="G48" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="49" ht="26.4" spans="1:7">
-      <c r="A49" s="12">
+      <c r="C49" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D49" s="13">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="B49" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="C49" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="D49" s="13">
-        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="E49" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F49" s="28" t="s">
+      <c r="F49" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" ht="26.4" spans="1:7">
+      <c r="A50" s="12">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B50" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="G49" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="50" ht="28.8" spans="1:6">
-      <c r="A50" s="2">
+      <c r="C50" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D50" s="13">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" ht="28.8" spans="1:6">
+      <c r="A51" s="2">
         <v>41</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D50" s="2">
-        <v>240</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F50" s="3" t="s">
+      <c r="B51" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="51" ht="72" spans="1:6">
-      <c r="A51" s="2">
-        <v>42</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="C51" s="2" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="D51" s="2">
         <v>240</v>
@@ -2833,35 +2833,35 @@
         <v>23</v>
       </c>
       <c r="F51" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52" ht="72" spans="1:6">
+      <c r="A52" s="2">
+        <v>42</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="2">
-        <v>43</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D52" s="2">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>11</v>
@@ -2873,18 +2873,18 @@
         <v>12</v>
       </c>
       <c r="F53" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="2">
+        <v>44</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="54" ht="28.8" spans="1:6">
-      <c r="A54" s="2">
-        <v>45</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="C54" s="2" t="s">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="D54" s="2">
         <v>60</v>
@@ -2893,32 +2893,52 @@
         <v>12</v>
       </c>
       <c r="F54" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="55" ht="28.8" spans="1:6">
+      <c r="A55" s="2">
+        <v>45</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="25">
+      <c r="C55" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D55" s="2">
+        <v>60</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1">
         <v>46</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D55" s="25">
+      <c r="B56" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D56" s="1">
         <v>60</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F55" s="26" t="s">
-        <v>118</v>
+      <c r="F56" s="25" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10:E49">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E23 E10:E22 E24:E50">
       <formula1>"Simple, Medium, Complex"</formula1>
     </dataValidation>
   </dataValidations>

--- a/SWP/References/OnlineLearn_Function Details.xlsx
+++ b/SWP/References/OnlineLearn_Function Details.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="123">
   <si>
     <t>THE APPLICATION DEVELOPMENT PROJECT TOPIC (SWP391)</t>
   </si>
@@ -170,7 +170,7 @@
     <t>Show subject details (including title, tag line, brief info, lowest price package option (original price, sale price), product description, and a Register button) + the slider with the subject search box, subject categories, featured subjects, static contacts/links</t>
   </si>
   <si>
-    <t>Course Register</t>
+    <t>Pakage Register</t>
   </si>
   <si>
     <t>This is a pop-up screen which allow the user to register for access a subject. On this screen, the user needs to choose appropriate subject price package.</t>
@@ -179,7 +179,10 @@
     <t>Nhóm Mạnh</t>
   </si>
   <si>
-    <t>Section List</t>
+    <t>Chưa làm</t>
+  </si>
+  <si>
+    <t>Lesson List</t>
   </si>
   <si>
     <t>Learning</t>
@@ -203,6 +206,9 @@
     <t>allow customer to access the course lessons for his/her studying</t>
   </si>
   <si>
+    <t>Doing</t>
+  </si>
+  <si>
     <t>Quiz Lesson</t>
   </si>
   <si>
@@ -237,6 +243,9 @@
   </si>
   <si>
     <t>Show detailed post information (thumbnail, category, title, brief information,  description, flag to turn the featurning on/off, status), from that allow the user to input, view or edit them</t>
+  </si>
+  <si>
+    <t>Đang làm</t>
   </si>
   <si>
     <t>Sliders List Edit</t>
@@ -563,7 +572,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -577,23 +608,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -615,6 +632,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -623,6 +647,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -638,73 +701,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -733,13 +742,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -752,162 +917,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -932,6 +941,17 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -975,17 +995,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1005,11 +1019,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1022,21 +1042,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1055,128 +1064,128 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1671,9 +1680,9 @@
   <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="119" zoomScaleNormal="119" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="9" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomLeft" activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8" defaultRowHeight="14.4"/>
@@ -1756,7 +1765,7 @@
     </row>
     <row r="10" ht="39.6" spans="1:8">
       <c r="A10" s="12">
-        <f>ROW()-9</f>
+        <f t="shared" ref="A10:A21" si="0">ROW()-9</f>
         <v>1</v>
       </c>
       <c r="B10" s="26" t="s">
@@ -1766,7 +1775,7 @@
         <v>11</v>
       </c>
       <c r="D10" s="13">
-        <f>IF(E10="Complex",240,IF(E10="Medium",120,60))</f>
+        <f t="shared" ref="D10:D21" si="1">IF(E10="Complex",240,IF(E10="Medium",120,60))</f>
         <v>60</v>
       </c>
       <c r="E10" s="12" t="s">
@@ -1784,7 +1793,7 @@
     </row>
     <row r="11" ht="52.8" spans="1:8">
       <c r="A11" s="12">
-        <f>ROW()-9</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B11" s="26" t="s">
@@ -1794,7 +1803,7 @@
         <v>11</v>
       </c>
       <c r="D11" s="13">
-        <f>IF(E11="Complex",240,IF(E11="Medium",120,60))</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="E11" s="12" t="s">
@@ -1812,7 +1821,7 @@
     </row>
     <row r="12" ht="79.2" spans="1:8">
       <c r="A12" s="12">
-        <f>ROW()-9</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B12" s="26" t="s">
@@ -1822,7 +1831,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="13">
-        <f>IF(E12="Complex",240,IF(E12="Medium",120,60))</f>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="E12" s="12" t="s">
@@ -1840,7 +1849,7 @@
     </row>
     <row r="13" ht="52.8" spans="1:8">
       <c r="A13" s="12">
-        <f>ROW()-9</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B13" s="28" t="s">
@@ -1850,7 +1859,7 @@
         <v>11</v>
       </c>
       <c r="D13" s="16">
-        <f>IF(E13="Complex",240,IF(E13="Medium",120,60))</f>
+        <f t="shared" si="1"/>
         <v>240</v>
       </c>
       <c r="E13" s="15" t="s">
@@ -1868,7 +1877,7 @@
     </row>
     <row r="14" ht="39.6" spans="1:8">
       <c r="A14" s="12">
-        <f>ROW()-9</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B14" s="26" t="s">
@@ -1878,7 +1887,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="13">
-        <f>IF(E14="Complex",240,IF(E14="Medium",120,60))</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="E14" s="12" t="s">
@@ -1896,7 +1905,7 @@
     </row>
     <row r="15" ht="26.4" spans="1:8">
       <c r="A15" s="12">
-        <f>ROW()-9</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B15" s="26" t="s">
@@ -1906,7 +1915,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="13">
-        <f>IF(E15="Complex",240,IF(E15="Medium",120,60))</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="E15" s="12" t="s">
@@ -1924,7 +1933,7 @@
     </row>
     <row r="16" ht="105.6" spans="1:8">
       <c r="A16" s="12">
-        <f>ROW()-9</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B16" s="12" t="s">
@@ -1934,7 +1943,7 @@
         <v>32</v>
       </c>
       <c r="D16" s="13">
-        <f>IF(E16="Complex",240,IF(E16="Medium",120,60))</f>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="E16" s="12" t="s">
@@ -1952,7 +1961,7 @@
     </row>
     <row r="17" ht="52.8" spans="1:8">
       <c r="A17" s="12">
-        <f>ROW()-9</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B17" s="12" t="s">
@@ -1962,7 +1971,7 @@
         <v>32</v>
       </c>
       <c r="D17" s="13">
-        <f>IF(E17="Complex",240,IF(E17="Medium",120,60))</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="E17" s="12" t="s">
@@ -1980,7 +1989,7 @@
     </row>
     <row r="18" ht="26.4" spans="1:8">
       <c r="A18" s="12">
-        <f>ROW()-9</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B18" s="12" t="s">
@@ -1990,7 +1999,7 @@
         <v>32</v>
       </c>
       <c r="D18" s="13">
-        <f>IF(E18="Complex",240,IF(E18="Medium",120,60))</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="E18" s="12" t="s">
@@ -2008,7 +2017,7 @@
     </row>
     <row r="19" ht="92.4" spans="1:8">
       <c r="A19" s="12">
-        <f>ROW()-9</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B19" s="12" t="s">
@@ -2018,7 +2027,7 @@
         <v>32</v>
       </c>
       <c r="D19" s="13">
-        <f>IF(E19="Complex",240,IF(E19="Medium",120,60))</f>
+        <f t="shared" si="1"/>
         <v>240</v>
       </c>
       <c r="E19" s="12" t="s">
@@ -2036,7 +2045,7 @@
     </row>
     <row r="20" ht="52.8" spans="1:8">
       <c r="A20" s="12">
-        <f>ROW()-9</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B20" s="12" t="s">
@@ -2046,7 +2055,7 @@
         <v>32</v>
       </c>
       <c r="D20" s="13">
-        <f>IF(E20="Complex",240,IF(E20="Medium",120,60))</f>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="E20" s="12" t="s">
@@ -2064,7 +2073,7 @@
     </row>
     <row r="21" ht="26.4" spans="1:9">
       <c r="A21" s="12">
-        <f>ROW()-9</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B21" s="12" t="s">
@@ -2074,7 +2083,7 @@
         <v>32</v>
       </c>
       <c r="D21" s="13">
-        <f>IF(E21="Complex",240,IF(E21="Medium",120,60))</f>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="E21" s="12" t="s">
@@ -2085,6 +2094,9 @@
       </c>
       <c r="G21" s="2" t="s">
         <v>44</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="I21" s="2">
         <v>2</v>
@@ -2098,13 +2110,13 @@
       <c r="E22" s="12"/>
       <c r="F22" s="14"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:8">
       <c r="A23" s="12"/>
       <c r="B23" s="12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D23" s="13">
         <v>60</v>
@@ -2113,32 +2125,38 @@
         <v>12</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="12">
-        <f t="shared" ref="A24:A50" si="0">ROW()-9</f>
+        <f t="shared" ref="A24:A50" si="2">ROW()-9</f>
         <v>15</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D24" s="13">
-        <f t="shared" ref="D24:D50" si="1">IF(E24="Complex",240,IF(E24="Medium",120,60))</f>
+        <f t="shared" ref="D24:D50" si="3">IF(E24="Complex",240,IF(E24="Medium",120,60))</f>
         <v>60</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F24" s="27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="I24" s="2">
         <v>2</v>
@@ -2146,27 +2164,30 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D25" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>23</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="I25" s="2">
         <v>2</v>
@@ -2174,111 +2195,123 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D26" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>19</v>
       </c>
       <c r="F26" s="27" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="H26" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="I26" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="27" ht="26.4" spans="1:9">
       <c r="A27" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D27" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>23</v>
       </c>
       <c r="F27" s="27" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="H27" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="I27" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="28" ht="26.4" spans="1:9">
       <c r="A28" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D28" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>23</v>
       </c>
       <c r="F28" s="27" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="H28" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="I28" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="29" ht="39.6" spans="1:9">
       <c r="A29" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D29" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>23</v>
       </c>
       <c r="F29" s="27" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="I29" s="2">
         <v>2</v>
@@ -2286,534 +2319,543 @@
     </row>
     <row r="30" ht="39.6" spans="1:9">
       <c r="A30" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D30" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>19</v>
       </c>
       <c r="F30" s="27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="H30" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="I30" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="31" ht="39.6" spans="1:9">
       <c r="A31" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="B31" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="26" t="s">
-        <v>63</v>
-      </c>
       <c r="D31" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F31" s="27" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="H31" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="I31" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D32" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F32" s="27" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="H32" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="I32" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="33" ht="92.4" spans="1:7">
       <c r="A33" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="B33" s="26" t="s">
         <v>38</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D33" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>19</v>
       </c>
       <c r="F33" s="27" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" ht="39.6" spans="1:7">
       <c r="A34" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="B34" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="C34" s="26" t="s">
-        <v>69</v>
-      </c>
       <c r="D34" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>19</v>
       </c>
       <c r="F34" s="27" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" ht="52.8" spans="1:7">
       <c r="A35" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="B35" s="26" t="s">
         <v>40</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D35" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>23</v>
       </c>
       <c r="F35" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G35" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="36" ht="26.4" spans="1:7">
       <c r="A36" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="B36" s="30" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D36" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="E36" s="18" t="s">
         <v>12</v>
       </c>
       <c r="F36" s="31" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" ht="39.6" spans="1:7">
       <c r="A37" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D37" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F37" s="27" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" ht="39.6" spans="1:7">
       <c r="A38" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D38" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>19</v>
       </c>
       <c r="F38" s="27" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D39" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>19</v>
       </c>
       <c r="F39" s="27" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" ht="92.4" spans="1:7">
       <c r="A40" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D40" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>19</v>
       </c>
       <c r="F40" s="27" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" ht="52.8" spans="1:7">
       <c r="A41" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D41" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>23</v>
       </c>
       <c r="F41" s="27" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" ht="39.6" spans="1:7">
       <c r="A42" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D42" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="E42" s="12" t="s">
         <v>19</v>
       </c>
       <c r="F42" s="27" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" ht="79.2" spans="1:7">
       <c r="A43" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D43" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>19</v>
       </c>
       <c r="F43" s="27" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D44" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="E44" s="12" t="s">
         <v>19</v>
       </c>
       <c r="F44" s="27" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" s="1" customFormat="1" ht="118.8" spans="1:7">
       <c r="A45" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="B45" s="32" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C45" s="32" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D45" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="E45" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F45" s="33" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G45" s="24" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" s="1" customFormat="1" ht="105.6" spans="1:7">
       <c r="A46" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="B46" s="32" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C46" s="32" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D46" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="E46" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F46" s="33" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G46" s="24"/>
     </row>
     <row r="47" ht="92.4" spans="1:7">
       <c r="A47" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C47" s="30" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D47" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="E47" s="18" t="s">
         <v>12</v>
       </c>
       <c r="F47" s="31" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" ht="52.8" spans="1:7">
       <c r="A48" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="B48" s="30" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C48" s="30" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D48" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="E48" s="18" t="s">
         <v>12</v>
       </c>
       <c r="F48" s="31" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" ht="79.2" spans="1:7">
       <c r="A49" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D49" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="E49" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F49" s="27" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" ht="26.4" spans="1:7">
       <c r="A50" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D50" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="E50" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F50" s="27" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" ht="28.8" spans="1:6">
@@ -2821,10 +2863,10 @@
         <v>41</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D51" s="2">
         <v>240</v>
@@ -2833,7 +2875,7 @@
         <v>23</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="52" ht="72" spans="1:6">
@@ -2841,7 +2883,7 @@
         <v>42</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>11</v>
@@ -2853,7 +2895,7 @@
         <v>23</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2861,7 +2903,7 @@
         <v>43</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>11</v>
@@ -2873,7 +2915,7 @@
         <v>12</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2881,7 +2923,7 @@
         <v>44</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>11</v>
@@ -2893,7 +2935,7 @@
         <v>12</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="55" ht="28.8" spans="1:6">
@@ -2901,10 +2943,10 @@
         <v>45</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D55" s="2">
         <v>60</v>
@@ -2913,7 +2955,7 @@
         <v>12</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2921,10 +2963,10 @@
         <v>46</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D56" s="1">
         <v>60</v>
@@ -2933,7 +2975,7 @@
         <v>12</v>
       </c>
       <c r="F56" s="25" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
